--- a/Assets/ExperimentData/ExperimentQuestions/PatternsList.xlsx
+++ b/Assets/ExperimentData/ExperimentQuestions/PatternsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe Liu\Documents\Joe\Unity\VisualPattern-LimitedVision-Git\Assets\ExperimentData\ExperimentQuestions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clair\Documents\Git Projects\AR-Spatial-Memory\Assets\ExperimentData\ExperimentQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3589F9-2257-446E-9A69-538B2B4339CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5633636E-D619-4A6A-AF63-A73AF3D691D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10363" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{23B5EDD0-A911-40CE-8FE7-A2547B6B9F30}"/>
+    <workbookView xWindow="-28920" yWindow="10365" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{23B5EDD0-A911-40CE-8FE7-A2547B6B9F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Level 5 (number auto) " sheetId="15" r:id="rId10"/>
     <sheet name="Level 6 (Ori)" sheetId="8" r:id="rId11"/>
     <sheet name="Level 6 (number)" sheetId="6" r:id="rId12"/>
-    <sheet name="Level 8" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="Current Tasks" sheetId="16" r:id="rId13"/>
+    <sheet name="Level 8" sheetId="4" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>Original</t>
   </si>
@@ -52,6 +53,21 @@
   </si>
   <si>
     <t>Total Manhattan Distance</t>
+  </si>
+  <si>
+    <t>Furniture + Irregular</t>
+  </si>
+  <si>
+    <t>Furniture + Regular</t>
+  </si>
+  <si>
+    <t>No Furniture + Regular</t>
+  </si>
+  <si>
+    <t>No Furniture + Irregular</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -103,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -889,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1001,6 +1023,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,13 +1060,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,16 +1096,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1395,14 +1507,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
+    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1452,7 +1564,7 @@
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1502,7 +1614,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1552,7 +1664,7 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
     </row>
-    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1602,7 +1714,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1652,7 +1764,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1702,7 +1814,7 @@
       <c r="AU6" s="13"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1752,7 +1864,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1802,7 +1914,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1852,7 +1964,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1902,7 +2014,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1952,7 +2064,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2002,7 +2114,7 @@
       <c r="AU12" s="13"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2052,7 +2164,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2102,7 +2214,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2152,7 +2264,7 @@
       <c r="AU15" s="13"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2202,7 +2314,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2252,7 +2364,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2302,7 +2414,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2352,7 +2464,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2402,7 +2514,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2452,7 +2564,7 @@
       <c r="AU21" s="13"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2502,7 +2614,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2552,7 +2664,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2602,7 +2714,7 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2652,7 +2764,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2702,7 +2814,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2752,7 +2864,7 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2802,7 +2914,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2852,7 +2964,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2911,81 +3023,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3C194E-5CE2-4733-842E-71ACE3410B2C}">
   <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S31" sqref="S31"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="5.69140625" customWidth="1"/>
-    <col min="25" max="36" width="5.69140625" hidden="1" customWidth="1"/>
-    <col min="37" max="48" width="5.69140625" customWidth="1"/>
+    <col min="1" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="36" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="37" max="48" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="21.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="107" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="107" t="s">
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="111" t="s">
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="113"/>
-    </row>
-    <row r="2" spans="1:48" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="123"/>
+    </row>
+    <row r="2" spans="1:48" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98">
         <v>0</v>
       </c>
-      <c r="B2" s="130">
+      <c r="B2" s="109">
         <v>1</v>
       </c>
       <c r="C2" s="99">
@@ -2997,7 +3109,7 @@
       <c r="E2" s="99">
         <v>4</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="109">
         <v>5</v>
       </c>
       <c r="G2" s="99">
@@ -3105,7 +3217,7 @@
       <c r="AO2" s="99">
         <v>4</v>
       </c>
-      <c r="AP2" s="130">
+      <c r="AP2" s="109">
         <v>5</v>
       </c>
       <c r="AQ2" s="99">
@@ -3117,7 +3229,7 @@
       <c r="AS2" s="99">
         <v>8</v>
       </c>
-      <c r="AT2" s="130">
+      <c r="AT2" s="109">
         <v>9</v>
       </c>
       <c r="AU2" s="99">
@@ -3127,7 +3239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <v>12</v>
       </c>
@@ -3161,7 +3273,7 @@
       <c r="K3" s="58">
         <v>22</v>
       </c>
-      <c r="L3" s="131">
+      <c r="L3" s="110">
         <v>23</v>
       </c>
       <c r="M3" s="74">
@@ -3236,7 +3348,7 @@
       <c r="AJ3" s="102">
         <v>23</v>
       </c>
-      <c r="AK3" s="134">
+      <c r="AK3" s="113">
         <v>12</v>
       </c>
       <c r="AL3" s="58">
@@ -3273,14 +3385,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="103">
         <v>24</v>
       </c>
       <c r="B4" s="104">
         <v>25</v>
       </c>
-      <c r="C4" s="132">
+      <c r="C4" s="111">
         <v>26</v>
       </c>
       <c r="D4" s="104">
@@ -3292,7 +3404,7 @@
       <c r="F4" s="104">
         <v>29</v>
       </c>
-      <c r="G4" s="132">
+      <c r="G4" s="111">
         <v>30</v>
       </c>
       <c r="H4" s="104">
@@ -3307,7 +3419,7 @@
       <c r="K4" s="104">
         <v>34</v>
       </c>
-      <c r="L4" s="133">
+      <c r="L4" s="112">
         <v>35</v>
       </c>
       <c r="M4" s="103">
@@ -3400,7 +3512,7 @@
       <c r="AP4" s="104">
         <v>29</v>
       </c>
-      <c r="AQ4" s="132">
+      <c r="AQ4" s="111">
         <v>30</v>
       </c>
       <c r="AR4" s="104">
@@ -3412,14 +3524,14 @@
       <c r="AT4" s="104">
         <v>33</v>
       </c>
-      <c r="AU4" s="132">
+      <c r="AU4" s="111">
         <v>34</v>
       </c>
       <c r="AV4" s="106">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98">
         <v>0</v>
       </c>
@@ -3432,7 +3544,7 @@
       <c r="D5" s="99">
         <v>3</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="109">
         <v>4</v>
       </c>
       <c r="F5" s="99">
@@ -3441,7 +3553,7 @@
       <c r="G5" s="99">
         <v>6</v>
       </c>
-      <c r="H5" s="130">
+      <c r="H5" s="109">
         <v>7</v>
       </c>
       <c r="I5" s="99">
@@ -3561,11 +3673,11 @@
       <c r="AU5" s="99">
         <v>10</v>
       </c>
-      <c r="AV5" s="136">
+      <c r="AV5" s="115">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <v>12</v>
       </c>
@@ -3711,8 +3823,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="135">
+    <row r="7" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="114">
         <v>24</v>
       </c>
       <c r="B7" s="104">
@@ -3832,7 +3944,7 @@
       <c r="AN7" s="104">
         <v>27</v>
       </c>
-      <c r="AO7" s="132">
+      <c r="AO7" s="111">
         <v>28</v>
       </c>
       <c r="AP7" s="104">
@@ -3841,7 +3953,7 @@
       <c r="AQ7" s="105">
         <v>30</v>
       </c>
-      <c r="AR7" s="132">
+      <c r="AR7" s="111">
         <v>31</v>
       </c>
       <c r="AS7" s="105">
@@ -3857,14 +3969,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
         <v>0</v>
       </c>
       <c r="B8" s="99">
         <v>1</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="109">
         <v>2</v>
       </c>
       <c r="D8" s="99">
@@ -3891,7 +4003,7 @@
       <c r="K8" s="99">
         <v>10</v>
       </c>
-      <c r="L8" s="136">
+      <c r="L8" s="115">
         <v>11</v>
       </c>
       <c r="M8" s="74">
@@ -3981,7 +4093,7 @@
       <c r="AO8" s="99">
         <v>4</v>
       </c>
-      <c r="AP8" s="130">
+      <c r="AP8" s="109">
         <v>5</v>
       </c>
       <c r="AQ8" s="99">
@@ -3996,14 +4108,14 @@
       <c r="AT8" s="99">
         <v>9</v>
       </c>
-      <c r="AU8" s="130">
+      <c r="AU8" s="109">
         <v>10</v>
       </c>
       <c r="AV8" s="100">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>12</v>
       </c>
@@ -4149,11 +4261,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103">
         <v>24</v>
       </c>
-      <c r="B10" s="132">
+      <c r="B10" s="111">
         <v>25</v>
       </c>
       <c r="C10" s="105">
@@ -4168,7 +4280,7 @@
       <c r="F10" s="104">
         <v>29</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="111">
         <v>30</v>
       </c>
       <c r="H10" s="104">
@@ -4258,7 +4370,7 @@
       <c r="AJ10" s="106">
         <v>35</v>
       </c>
-      <c r="AK10" s="135">
+      <c r="AK10" s="114">
         <v>24</v>
       </c>
       <c r="AL10" s="104">
@@ -4285,7 +4397,7 @@
       <c r="AS10" s="104">
         <v>32</v>
       </c>
-      <c r="AT10" s="132">
+      <c r="AT10" s="111">
         <v>33</v>
       </c>
       <c r="AU10" s="105">
@@ -4295,7 +4407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98">
         <v>0</v>
       </c>
@@ -4308,7 +4420,7 @@
       <c r="D11" s="99">
         <v>3</v>
       </c>
-      <c r="E11" s="137">
+      <c r="E11" s="116">
         <v>4</v>
       </c>
       <c r="F11" s="99">
@@ -4317,7 +4429,7 @@
       <c r="G11" s="99">
         <v>6</v>
       </c>
-      <c r="H11" s="130">
+      <c r="H11" s="109">
         <v>7</v>
       </c>
       <c r="I11" s="99">
@@ -4329,7 +4441,7 @@
       <c r="K11" s="99">
         <v>10</v>
       </c>
-      <c r="L11" s="136">
+      <c r="L11" s="115">
         <v>11</v>
       </c>
       <c r="M11" s="74">
@@ -4428,20 +4540,20 @@
       <c r="AR11" s="99">
         <v>7</v>
       </c>
-      <c r="AS11" s="130">
+      <c r="AS11" s="109">
         <v>8</v>
       </c>
       <c r="AT11" s="99">
         <v>9</v>
       </c>
-      <c r="AU11" s="130">
+      <c r="AU11" s="109">
         <v>10</v>
       </c>
       <c r="AV11" s="100">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <v>12</v>
       </c>
@@ -4587,17 +4699,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="103">
         <v>24</v>
       </c>
-      <c r="B13" s="132">
+      <c r="B13" s="111">
         <v>25</v>
       </c>
       <c r="C13" s="105">
         <v>26</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="111">
         <v>27</v>
       </c>
       <c r="E13" s="105">
@@ -4621,7 +4733,7 @@
       <c r="K13" s="105">
         <v>34</v>
       </c>
-      <c r="L13" s="133">
+      <c r="L13" s="112">
         <v>35</v>
       </c>
       <c r="M13" s="103">
@@ -4696,7 +4808,7 @@
       <c r="AJ13" s="106">
         <v>35</v>
       </c>
-      <c r="AK13" s="135">
+      <c r="AK13" s="114">
         <v>24</v>
       </c>
       <c r="AL13" s="104">
@@ -4708,7 +4820,7 @@
       <c r="AN13" s="104">
         <v>27</v>
       </c>
-      <c r="AO13" s="132">
+      <c r="AO13" s="111">
         <v>28</v>
       </c>
       <c r="AP13" s="104">
@@ -4729,11 +4841,11 @@
       <c r="AU13" s="105">
         <v>34</v>
       </c>
-      <c r="AV13" s="133">
+      <c r="AV13" s="112">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>0</v>
       </c>
@@ -4842,7 +4954,7 @@
       <c r="AJ14" s="100">
         <v>11</v>
       </c>
-      <c r="AK14" s="128">
+      <c r="AK14" s="107">
         <v>0</v>
       </c>
       <c r="AL14" s="68">
@@ -4854,13 +4966,13 @@
       <c r="AN14" s="68">
         <v>3</v>
       </c>
-      <c r="AO14" s="129">
+      <c r="AO14" s="108">
         <v>4</v>
       </c>
       <c r="AP14" s="68">
         <v>5</v>
       </c>
-      <c r="AQ14" s="129">
+      <c r="AQ14" s="108">
         <v>6</v>
       </c>
       <c r="AR14" s="68">
@@ -4879,7 +4991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>12</v>
       </c>
@@ -5025,7 +5137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58">
         <v>24</v>
       </c>
@@ -5171,7 +5283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="98">
         <v>0</v>
       </c>
@@ -5317,7 +5429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <v>12</v>
       </c>
@@ -5463,7 +5575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="103">
         <v>24</v>
       </c>
@@ -5609,7 +5721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98">
         <v>0</v>
       </c>
@@ -5755,7 +5867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>12</v>
       </c>
@@ -5901,7 +6013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>24</v>
       </c>
@@ -6047,7 +6159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>0</v>
       </c>
@@ -6193,7 +6305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <v>12</v>
       </c>
@@ -6339,7 +6451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="74">
         <v>24</v>
       </c>
@@ -6485,7 +6597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <v>0</v>
       </c>
@@ -6631,7 +6743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <v>12</v>
       </c>
@@ -6777,7 +6889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="103">
         <v>24</v>
       </c>
@@ -6923,7 +7035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>0</v>
       </c>
@@ -7069,7 +7181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <v>12</v>
       </c>
@@ -7215,7 +7327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103">
         <v>24</v>
       </c>
@@ -7382,77 +7494,77 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="15.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="5.69140625" style="11" customWidth="1"/>
-    <col min="3" max="49" width="5.69140625" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
+    <col min="3" max="49" width="5.7109375" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="107" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="107" t="s">
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="109"/>
-    </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110">
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120">
         <v>13</v>
       </c>
       <c r="B2" s="17"/>
@@ -7479,33 +7591,33 @@
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="19"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="120"/>
-      <c r="AW2" s="121"/>
-    </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="131"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
       <c r="D3" s="16"/>
@@ -7530,33 +7642,33 @@
       <c r="W3" s="16"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="124"/>
-    </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="133"/>
+      <c r="AI3" s="133"/>
+      <c r="AJ3" s="133"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="133"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="133"/>
+      <c r="AS3" s="133"/>
+      <c r="AT3" s="133"/>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="133"/>
+      <c r="AW3" s="134"/>
+    </row>
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -7581,33 +7693,33 @@
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
       <c r="Y4" s="24"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="127"/>
-    </row>
-    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110">
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="137"/>
+    </row>
+    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>14</v>
       </c>
       <c r="B5" s="28"/>
@@ -7659,8 +7771,8 @@
       <c r="AV5" s="32"/>
       <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7710,8 +7822,8 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="22"/>
       <c r="C7" s="31"/>
       <c r="D7" s="23"/>
@@ -7761,8 +7873,8 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>14</v>
       </c>
       <c r="B8" s="17"/>
@@ -7814,8 +7926,8 @@
       <c r="AV8" s="32"/>
       <c r="AW8" s="19"/>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7865,8 +7977,8 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="21"/>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="22"/>
       <c r="C10" s="31"/>
       <c r="D10" s="23"/>
@@ -7916,8 +8028,8 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>14</v>
       </c>
       <c r="B11" s="17"/>
@@ -7969,8 +8081,8 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -8020,8 +8132,8 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
       <c r="D13" s="23"/>
@@ -8071,8 +8183,8 @@
       <c r="AV13" s="31"/>
       <c r="AW13" s="24"/>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>14</v>
       </c>
       <c r="B14" s="17"/>
@@ -8099,33 +8211,33 @@
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="120"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="120"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="121"/>
-    </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
+      <c r="AJ14" s="130"/>
+      <c r="AK14" s="130"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="130"/>
+      <c r="AN14" s="130"/>
+      <c r="AO14" s="130"/>
+      <c r="AP14" s="130"/>
+      <c r="AQ14" s="130"/>
+      <c r="AR14" s="130"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="130"/>
+      <c r="AU14" s="130"/>
+      <c r="AV14" s="130"/>
+      <c r="AW14" s="131"/>
+    </row>
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="33"/>
@@ -8150,33 +8262,33 @@
       <c r="W15" s="33"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="21"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="123"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="123"/>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="124"/>
-    </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="133"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="133"/>
+      <c r="AL15" s="133"/>
+      <c r="AM15" s="133"/>
+      <c r="AN15" s="133"/>
+      <c r="AO15" s="133"/>
+      <c r="AP15" s="133"/>
+      <c r="AQ15" s="133"/>
+      <c r="AR15" s="133"/>
+      <c r="AS15" s="133"/>
+      <c r="AT15" s="133"/>
+      <c r="AU15" s="133"/>
+      <c r="AV15" s="133"/>
+      <c r="AW15" s="134"/>
+    </row>
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -8201,33 +8313,33 @@
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="24"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="126"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="126"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="126"/>
-      <c r="AS16" s="126"/>
-      <c r="AT16" s="126"/>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="126"/>
-      <c r="AW16" s="127"/>
-    </row>
-    <row r="17" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="114">
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="136"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="136"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="136"/>
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="136"/>
+      <c r="AP16" s="136"/>
+      <c r="AQ16" s="136"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="136"/>
+      <c r="AT16" s="136"/>
+      <c r="AU16" s="136"/>
+      <c r="AV16" s="136"/>
+      <c r="AW16" s="137"/>
+    </row>
+    <row r="17" spans="1:49" s="9" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="124">
         <v>15</v>
       </c>
       <c r="B17" s="17"/>
@@ -8279,8 +8391,8 @@
       <c r="AV17" s="32"/>
       <c r="AW17" s="19"/>
     </row>
-    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="115"/>
+    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="125"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8330,8 +8442,8 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="115"/>
+    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="125"/>
       <c r="B19" s="22"/>
       <c r="C19" s="31"/>
       <c r="D19" s="23"/>
@@ -8381,8 +8493,8 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>15</v>
       </c>
       <c r="B20" s="17"/>
@@ -8434,8 +8546,8 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -8485,8 +8597,8 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -8536,8 +8648,8 @@
       <c r="AV22" s="31"/>
       <c r="AW22" s="24"/>
     </row>
-    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="115">
+    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="125">
         <v>17</v>
       </c>
       <c r="B23" s="17"/>
@@ -8589,8 +8701,8 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="115"/>
+    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="125"/>
       <c r="B24" s="20"/>
       <c r="C24" s="33"/>
       <c r="D24" s="16"/>
@@ -8640,8 +8752,8 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="115"/>
+    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -8691,8 +8803,8 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="115">
+    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125">
         <v>17</v>
       </c>
       <c r="B26" s="17"/>
@@ -8744,8 +8856,8 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="115"/>
+    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="125"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8795,8 +8907,8 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="115"/>
+    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -8846,8 +8958,8 @@
       <c r="AV28" s="31"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="115">
+    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="125">
         <v>18</v>
       </c>
       <c r="B29" s="17"/>
@@ -8899,8 +9011,8 @@
       <c r="AV29" s="32"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="115"/>
+    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="125"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -8950,8 +9062,8 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="115"/>
+    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="125"/>
       <c r="B31" s="22"/>
       <c r="C31" s="31"/>
       <c r="D31" s="23"/>
@@ -9001,9 +9113,15 @@
       <c r="AV31" s="23"/>
       <c r="AW31" s="24"/>
     </row>
-    <row r="32" spans="1:49" ht="16.3" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="Z2:AW4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
@@ -9014,12 +9132,6 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="Z2:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9034,77 +9146,77 @@
       <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="15.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="5.69140625" style="11" customWidth="1"/>
-    <col min="3" max="49" width="5.69140625" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
+    <col min="3" max="49" width="5.7109375" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="107" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="107" t="s">
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="109"/>
-    </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110">
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120">
         <v>13</v>
       </c>
       <c r="B2" s="17">
@@ -9179,33 +9291,33 @@
       <c r="Y2" s="19">
         <v>12</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="120"/>
-      <c r="AW2" s="121"/>
-    </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="131"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
       <c r="B3" s="20">
         <v>13</v>
       </c>
@@ -9278,33 +9390,33 @@
       <c r="Y3" s="21">
         <v>24</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="124"/>
-    </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="133"/>
+      <c r="AI3" s="133"/>
+      <c r="AJ3" s="133"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="133"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133"/>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="133"/>
+      <c r="AS3" s="133"/>
+      <c r="AT3" s="133"/>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="133"/>
+      <c r="AW3" s="134"/>
+    </row>
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="22">
         <v>25</v>
       </c>
@@ -9377,33 +9489,33 @@
       <c r="Y4" s="24">
         <v>36</v>
       </c>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="127"/>
-    </row>
-    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110">
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="137"/>
+    </row>
+    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>14</v>
       </c>
       <c r="B5" s="28">
@@ -9551,8 +9663,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="20">
         <v>13</v>
       </c>
@@ -9698,8 +9810,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="22">
         <v>25</v>
       </c>
@@ -9845,8 +9957,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>14</v>
       </c>
       <c r="B8" s="17">
@@ -9994,8 +10106,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="20">
         <v>13</v>
       </c>
@@ -10141,8 +10253,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="22">
         <v>25</v>
       </c>
@@ -10288,8 +10400,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>14</v>
       </c>
       <c r="B11" s="17">
@@ -10437,8 +10549,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="20">
         <v>13</v>
       </c>
@@ -10584,8 +10696,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="22">
         <v>25</v>
       </c>
@@ -10731,8 +10843,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>14</v>
       </c>
       <c r="B14" s="17">
@@ -10807,35 +10919,35 @@
       <c r="Y14" s="19">
         <v>12</v>
       </c>
-      <c r="Z14" s="119">
+      <c r="Z14" s="129">
         <v>1</v>
       </c>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="120"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="120"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="121"/>
-    </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
+      <c r="AJ14" s="130"/>
+      <c r="AK14" s="130"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="130"/>
+      <c r="AN14" s="130"/>
+      <c r="AO14" s="130"/>
+      <c r="AP14" s="130"/>
+      <c r="AQ14" s="130"/>
+      <c r="AR14" s="130"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="130"/>
+      <c r="AU14" s="130"/>
+      <c r="AV14" s="130"/>
+      <c r="AW14" s="131"/>
+    </row>
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20">
         <v>13</v>
       </c>
@@ -10908,33 +11020,33 @@
       <c r="Y15" s="21">
         <v>24</v>
       </c>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="123"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="123"/>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="124"/>
-    </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="133"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="133"/>
+      <c r="AL15" s="133"/>
+      <c r="AM15" s="133"/>
+      <c r="AN15" s="133"/>
+      <c r="AO15" s="133"/>
+      <c r="AP15" s="133"/>
+      <c r="AQ15" s="133"/>
+      <c r="AR15" s="133"/>
+      <c r="AS15" s="133"/>
+      <c r="AT15" s="133"/>
+      <c r="AU15" s="133"/>
+      <c r="AV15" s="133"/>
+      <c r="AW15" s="134"/>
+    </row>
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22">
         <v>25</v>
       </c>
@@ -11007,33 +11119,33 @@
       <c r="Y16" s="24">
         <v>36</v>
       </c>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="126"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="126"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="126"/>
-      <c r="AS16" s="126"/>
-      <c r="AT16" s="126"/>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="126"/>
-      <c r="AW16" s="127"/>
-    </row>
-    <row r="17" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="114">
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="136"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="136"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="136"/>
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="136"/>
+      <c r="AP16" s="136"/>
+      <c r="AQ16" s="136"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="136"/>
+      <c r="AT16" s="136"/>
+      <c r="AU16" s="136"/>
+      <c r="AV16" s="136"/>
+      <c r="AW16" s="137"/>
+    </row>
+    <row r="17" spans="1:49" s="9" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="124">
         <v>15</v>
       </c>
       <c r="B17" s="17">
@@ -11181,8 +11293,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="115"/>
+    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="125"/>
       <c r="B18" s="20">
         <v>13</v>
       </c>
@@ -11328,8 +11440,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="115"/>
+    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="125"/>
       <c r="B19" s="22">
         <v>25</v>
       </c>
@@ -11475,8 +11587,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>15</v>
       </c>
       <c r="B20" s="17">
@@ -11624,8 +11736,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -11771,8 +11883,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22">
         <v>25</v>
       </c>
@@ -11918,8 +12030,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="115">
+    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="125">
         <v>17</v>
       </c>
       <c r="B23" s="17">
@@ -12067,8 +12179,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="115"/>
+    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="125"/>
       <c r="B24" s="20">
         <v>13</v>
       </c>
@@ -12214,8 +12326,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="115"/>
+    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
       <c r="B25" s="22">
         <v>25</v>
       </c>
@@ -12361,8 +12473,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="115">
+    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125">
         <v>17</v>
       </c>
       <c r="B26" s="17">
@@ -12510,8 +12622,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="115"/>
+    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="125"/>
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -12657,8 +12769,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="115"/>
+    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125"/>
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -12804,8 +12916,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="115">
+    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="125">
         <v>18</v>
       </c>
       <c r="B29" s="17">
@@ -12953,8 +13065,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="115"/>
+    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="125"/>
       <c r="B30" s="20">
         <v>13</v>
       </c>
@@ -13100,8 +13212,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="115"/>
+    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="125"/>
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -13247,9 +13359,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="16.3" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -13261,17 +13378,2762 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3369EF7-3B58-4B62-9A20-D714AE8601CF}">
+  <dimension ref="A1:AW19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="49" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36"/>
+      <c r="B1" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="138">
+        <v>0</v>
+      </c>
+      <c r="C2" s="139">
+        <v>1</v>
+      </c>
+      <c r="D2" s="140">
+        <v>2</v>
+      </c>
+      <c r="E2" s="139">
+        <v>3</v>
+      </c>
+      <c r="F2" s="140">
+        <v>4</v>
+      </c>
+      <c r="G2" s="139">
+        <v>5</v>
+      </c>
+      <c r="H2" s="141">
+        <v>6</v>
+      </c>
+      <c r="I2" s="139">
+        <v>7</v>
+      </c>
+      <c r="J2" s="140">
+        <v>8</v>
+      </c>
+      <c r="K2" s="139">
+        <v>9</v>
+      </c>
+      <c r="L2" s="141">
+        <v>10</v>
+      </c>
+      <c r="M2" s="142">
+        <v>11</v>
+      </c>
+      <c r="N2" s="138">
+        <v>0</v>
+      </c>
+      <c r="O2" s="139">
+        <v>1</v>
+      </c>
+      <c r="P2" s="141">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="139">
+        <v>3</v>
+      </c>
+      <c r="R2" s="140">
+        <v>4</v>
+      </c>
+      <c r="S2" s="139">
+        <v>5</v>
+      </c>
+      <c r="T2" s="140">
+        <v>6</v>
+      </c>
+      <c r="U2" s="139">
+        <v>7</v>
+      </c>
+      <c r="V2" s="140">
+        <v>8</v>
+      </c>
+      <c r="W2" s="139">
+        <v>9</v>
+      </c>
+      <c r="X2" s="140">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="159">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="138">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="139">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="140">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="139">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="141">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="139">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="141">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="139">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="140">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="139">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="140">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="142">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="138">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="139">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="140">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="139">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="140">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="139">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="141">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="139">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="140">
+        <v>8</v>
+      </c>
+      <c r="AU2" s="139">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="141">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
+      <c r="B3" s="151">
+        <v>12</v>
+      </c>
+      <c r="C3" s="144">
+        <v>13</v>
+      </c>
+      <c r="D3" s="145">
+        <v>14</v>
+      </c>
+      <c r="E3" s="144">
+        <v>15</v>
+      </c>
+      <c r="F3" s="145">
+        <v>16</v>
+      </c>
+      <c r="G3" s="144">
+        <v>17</v>
+      </c>
+      <c r="H3" s="145">
+        <v>18</v>
+      </c>
+      <c r="I3" s="144">
+        <v>19</v>
+      </c>
+      <c r="J3" s="145">
+        <v>20</v>
+      </c>
+      <c r="K3" s="144">
+        <v>21</v>
+      </c>
+      <c r="L3" s="145">
+        <v>22</v>
+      </c>
+      <c r="M3" s="146">
+        <v>23</v>
+      </c>
+      <c r="N3" s="143">
+        <v>12</v>
+      </c>
+      <c r="O3" s="144">
+        <v>13</v>
+      </c>
+      <c r="P3" s="145">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="144">
+        <v>15</v>
+      </c>
+      <c r="R3" s="145">
+        <v>16</v>
+      </c>
+      <c r="S3" s="144">
+        <v>17</v>
+      </c>
+      <c r="T3" s="145">
+        <v>18</v>
+      </c>
+      <c r="U3" s="144">
+        <v>19</v>
+      </c>
+      <c r="V3" s="154">
+        <v>20</v>
+      </c>
+      <c r="W3" s="144">
+        <v>21</v>
+      </c>
+      <c r="X3" s="145">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="146">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="143">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="155">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="145">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="144">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="145">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="144">
+        <v>17</v>
+      </c>
+      <c r="AF3" s="145">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="144">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="145">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="155">
+        <v>21</v>
+      </c>
+      <c r="AJ3" s="145">
+        <v>22</v>
+      </c>
+      <c r="AK3" s="146">
+        <v>23</v>
+      </c>
+      <c r="AL3" s="143">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="144">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="145">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="155">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="145">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="144">
+        <v>17</v>
+      </c>
+      <c r="AR3" s="145">
+        <v>18</v>
+      </c>
+      <c r="AS3" s="144">
+        <v>19</v>
+      </c>
+      <c r="AT3" s="145">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="144">
+        <v>21</v>
+      </c>
+      <c r="AV3" s="145">
+        <v>22</v>
+      </c>
+      <c r="AW3" s="146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
+      <c r="B4" s="147">
+        <v>24</v>
+      </c>
+      <c r="C4" s="148">
+        <v>25</v>
+      </c>
+      <c r="D4" s="149">
+        <v>26</v>
+      </c>
+      <c r="E4" s="148">
+        <v>27</v>
+      </c>
+      <c r="F4" s="149">
+        <v>28</v>
+      </c>
+      <c r="G4" s="152">
+        <v>29</v>
+      </c>
+      <c r="H4" s="149">
+        <v>30</v>
+      </c>
+      <c r="I4" s="148">
+        <v>31</v>
+      </c>
+      <c r="J4" s="149">
+        <v>32</v>
+      </c>
+      <c r="K4" s="152">
+        <v>33</v>
+      </c>
+      <c r="L4" s="149">
+        <v>34</v>
+      </c>
+      <c r="M4" s="150">
+        <v>35</v>
+      </c>
+      <c r="N4" s="147">
+        <v>24</v>
+      </c>
+      <c r="O4" s="152">
+        <v>25</v>
+      </c>
+      <c r="P4" s="149">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="148">
+        <v>27</v>
+      </c>
+      <c r="R4" s="149">
+        <v>28</v>
+      </c>
+      <c r="S4" s="148">
+        <v>29</v>
+      </c>
+      <c r="T4" s="158">
+        <v>30</v>
+      </c>
+      <c r="U4" s="148">
+        <v>31</v>
+      </c>
+      <c r="V4" s="149">
+        <v>32</v>
+      </c>
+      <c r="W4" s="148">
+        <v>33</v>
+      </c>
+      <c r="X4" s="149">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="150">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="147">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="148">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="149">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="148">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="149">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="148">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="149">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="148">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="149">
+        <v>32</v>
+      </c>
+      <c r="AI4" s="148">
+        <v>33</v>
+      </c>
+      <c r="AJ4" s="149">
+        <v>34</v>
+      </c>
+      <c r="AK4" s="156">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="147">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="152">
+        <v>25</v>
+      </c>
+      <c r="AN4" s="149">
+        <v>26</v>
+      </c>
+      <c r="AO4" s="148">
+        <v>27</v>
+      </c>
+      <c r="AP4" s="149">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="148">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="149">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="148">
+        <v>31</v>
+      </c>
+      <c r="AT4" s="149">
+        <v>32</v>
+      </c>
+      <c r="AU4" s="148">
+        <v>33</v>
+      </c>
+      <c r="AV4" s="149">
+        <v>34</v>
+      </c>
+      <c r="AW4" s="156">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="126">
+        <v>1</v>
+      </c>
+      <c r="B5" s="138">
+        <v>0</v>
+      </c>
+      <c r="C5" s="139">
+        <v>1</v>
+      </c>
+      <c r="D5" s="140">
+        <v>2</v>
+      </c>
+      <c r="E5" s="139">
+        <v>3</v>
+      </c>
+      <c r="F5" s="141">
+        <v>4</v>
+      </c>
+      <c r="G5" s="139">
+        <v>5</v>
+      </c>
+      <c r="H5" s="140">
+        <v>6</v>
+      </c>
+      <c r="I5" s="153">
+        <v>7</v>
+      </c>
+      <c r="J5" s="140">
+        <v>8</v>
+      </c>
+      <c r="K5" s="139">
+        <v>9</v>
+      </c>
+      <c r="L5" s="140">
+        <v>10</v>
+      </c>
+      <c r="M5" s="142">
+        <v>11</v>
+      </c>
+      <c r="N5" s="138">
+        <v>0</v>
+      </c>
+      <c r="O5" s="139">
+        <v>1</v>
+      </c>
+      <c r="P5" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="139">
+        <v>3</v>
+      </c>
+      <c r="R5" s="140">
+        <v>4</v>
+      </c>
+      <c r="S5" s="139">
+        <v>5</v>
+      </c>
+      <c r="T5" s="140">
+        <v>6</v>
+      </c>
+      <c r="U5" s="153">
+        <v>7</v>
+      </c>
+      <c r="V5" s="140">
+        <v>8</v>
+      </c>
+      <c r="W5" s="139">
+        <v>9</v>
+      </c>
+      <c r="X5" s="140">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="159">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="139">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="140">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="139">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="140">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="139">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="140">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="139">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="141">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="139">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="141">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="142">
+        <v>11</v>
+      </c>
+      <c r="AL5" s="157">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="139">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="140">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="139">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="140">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="139">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="141">
+        <v>6</v>
+      </c>
+      <c r="AS5" s="139">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="140">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="139">
+        <v>9</v>
+      </c>
+      <c r="AV5" s="140">
+        <v>10</v>
+      </c>
+      <c r="AW5" s="142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="127"/>
+      <c r="B6" s="143">
+        <v>12</v>
+      </c>
+      <c r="C6" s="144">
+        <v>13</v>
+      </c>
+      <c r="D6" s="154">
+        <v>14</v>
+      </c>
+      <c r="E6" s="144">
+        <v>15</v>
+      </c>
+      <c r="F6" s="145">
+        <v>16</v>
+      </c>
+      <c r="G6" s="144">
+        <v>17</v>
+      </c>
+      <c r="H6" s="145">
+        <v>18</v>
+      </c>
+      <c r="I6" s="144">
+        <v>19</v>
+      </c>
+      <c r="J6" s="145">
+        <v>20</v>
+      </c>
+      <c r="K6" s="155">
+        <v>21</v>
+      </c>
+      <c r="L6" s="145">
+        <v>22</v>
+      </c>
+      <c r="M6" s="146">
+        <v>23</v>
+      </c>
+      <c r="N6" s="143">
+        <v>12</v>
+      </c>
+      <c r="O6" s="144">
+        <v>13</v>
+      </c>
+      <c r="P6" s="145">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="144">
+        <v>15</v>
+      </c>
+      <c r="R6" s="145">
+        <v>16</v>
+      </c>
+      <c r="S6" s="155">
+        <v>17</v>
+      </c>
+      <c r="T6" s="145">
+        <v>18</v>
+      </c>
+      <c r="U6" s="144">
+        <v>19</v>
+      </c>
+      <c r="V6" s="145">
+        <v>20</v>
+      </c>
+      <c r="W6" s="144">
+        <v>21</v>
+      </c>
+      <c r="X6" s="145">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="146">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="143">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="144">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="145">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="144">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="145">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="144">
+        <v>17</v>
+      </c>
+      <c r="AF6" s="154">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="144">
+        <v>19</v>
+      </c>
+      <c r="AH6" s="145">
+        <v>20</v>
+      </c>
+      <c r="AI6" s="144">
+        <v>21</v>
+      </c>
+      <c r="AJ6" s="145">
+        <v>22</v>
+      </c>
+      <c r="AK6" s="146">
+        <v>23</v>
+      </c>
+      <c r="AL6" s="143">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="144">
+        <v>13</v>
+      </c>
+      <c r="AN6" s="145">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="144">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="154">
+        <v>16</v>
+      </c>
+      <c r="AQ6" s="144">
+        <v>17</v>
+      </c>
+      <c r="AR6" s="145">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="144">
+        <v>19</v>
+      </c>
+      <c r="AT6" s="154">
+        <v>20</v>
+      </c>
+      <c r="AU6" s="144">
+        <v>21</v>
+      </c>
+      <c r="AV6" s="145">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
+      <c r="B7" s="147">
+        <v>24</v>
+      </c>
+      <c r="C7" s="148">
+        <v>25</v>
+      </c>
+      <c r="D7" s="149">
+        <v>26</v>
+      </c>
+      <c r="E7" s="148">
+        <v>27</v>
+      </c>
+      <c r="F7" s="149">
+        <v>28</v>
+      </c>
+      <c r="G7" s="148">
+        <v>29</v>
+      </c>
+      <c r="H7" s="149">
+        <v>30</v>
+      </c>
+      <c r="I7" s="148">
+        <v>31</v>
+      </c>
+      <c r="J7" s="149">
+        <v>32</v>
+      </c>
+      <c r="K7" s="148">
+        <v>33</v>
+      </c>
+      <c r="L7" s="149">
+        <v>34</v>
+      </c>
+      <c r="M7" s="156">
+        <v>35</v>
+      </c>
+      <c r="N7" s="147">
+        <v>24</v>
+      </c>
+      <c r="O7" s="152">
+        <v>25</v>
+      </c>
+      <c r="P7" s="149">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="152">
+        <v>27</v>
+      </c>
+      <c r="R7" s="149">
+        <v>28</v>
+      </c>
+      <c r="S7" s="148">
+        <v>29</v>
+      </c>
+      <c r="T7" s="149">
+        <v>30</v>
+      </c>
+      <c r="U7" s="148">
+        <v>31</v>
+      </c>
+      <c r="V7" s="149">
+        <v>32</v>
+      </c>
+      <c r="W7" s="148">
+        <v>33</v>
+      </c>
+      <c r="X7" s="149">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="150">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="160">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="148">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="149">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="148">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="158">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="148">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="149">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="148">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="149">
+        <v>32</v>
+      </c>
+      <c r="AI7" s="148">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="149">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="150">
+        <v>35</v>
+      </c>
+      <c r="AL7" s="147">
+        <v>24</v>
+      </c>
+      <c r="AM7" s="148">
+        <v>25</v>
+      </c>
+      <c r="AN7" s="149">
+        <v>26</v>
+      </c>
+      <c r="AO7" s="148">
+        <v>27</v>
+      </c>
+      <c r="AP7" s="149">
+        <v>28</v>
+      </c>
+      <c r="AQ7" s="148">
+        <v>29</v>
+      </c>
+      <c r="AR7" s="149">
+        <v>30</v>
+      </c>
+      <c r="AS7" s="148">
+        <v>31</v>
+      </c>
+      <c r="AT7" s="149">
+        <v>32</v>
+      </c>
+      <c r="AU7" s="148">
+        <v>33</v>
+      </c>
+      <c r="AV7" s="158">
+        <v>34</v>
+      </c>
+      <c r="AW7" s="150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="126">
+        <v>2</v>
+      </c>
+      <c r="B8" s="157">
+        <v>0</v>
+      </c>
+      <c r="C8" s="139">
+        <v>1</v>
+      </c>
+      <c r="D8" s="140">
+        <v>2</v>
+      </c>
+      <c r="E8" s="139">
+        <v>3</v>
+      </c>
+      <c r="F8" s="140">
+        <v>4</v>
+      </c>
+      <c r="G8" s="139">
+        <v>5</v>
+      </c>
+      <c r="H8" s="140">
+        <v>6</v>
+      </c>
+      <c r="I8" s="139">
+        <v>7</v>
+      </c>
+      <c r="J8" s="140">
+        <v>8</v>
+      </c>
+      <c r="K8" s="153">
+        <v>9</v>
+      </c>
+      <c r="L8" s="140">
+        <v>10</v>
+      </c>
+      <c r="M8" s="142">
+        <v>11</v>
+      </c>
+      <c r="N8" s="138">
+        <v>0</v>
+      </c>
+      <c r="O8" s="153">
+        <v>1</v>
+      </c>
+      <c r="P8" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="139">
+        <v>3</v>
+      </c>
+      <c r="R8" s="140">
+        <v>4</v>
+      </c>
+      <c r="S8" s="139">
+        <v>5</v>
+      </c>
+      <c r="T8" s="141">
+        <v>6</v>
+      </c>
+      <c r="U8" s="139">
+        <v>7</v>
+      </c>
+      <c r="V8" s="140">
+        <v>8</v>
+      </c>
+      <c r="W8" s="139">
+        <v>9</v>
+      </c>
+      <c r="X8" s="140">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="142">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="138">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="139">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="140">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="139">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="140">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="153">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="140">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="139">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="140">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="139">
+        <v>9</v>
+      </c>
+      <c r="AJ8" s="141">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="142">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="138">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="153">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="140">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="139">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="140">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="139">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="140">
+        <v>6</v>
+      </c>
+      <c r="AS8" s="139">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="140">
+        <v>8</v>
+      </c>
+      <c r="AU8" s="139">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="140">
+        <v>10</v>
+      </c>
+      <c r="AW8" s="159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127"/>
+      <c r="B9" s="143">
+        <v>12</v>
+      </c>
+      <c r="C9" s="144">
+        <v>13</v>
+      </c>
+      <c r="D9" s="145">
+        <v>14</v>
+      </c>
+      <c r="E9" s="155">
+        <v>15</v>
+      </c>
+      <c r="F9" s="145">
+        <v>16</v>
+      </c>
+      <c r="G9" s="144">
+        <v>17</v>
+      </c>
+      <c r="H9" s="145">
+        <v>18</v>
+      </c>
+      <c r="I9" s="144">
+        <v>19</v>
+      </c>
+      <c r="J9" s="145">
+        <v>20</v>
+      </c>
+      <c r="K9" s="144">
+        <v>21</v>
+      </c>
+      <c r="L9" s="145">
+        <v>22</v>
+      </c>
+      <c r="M9" s="146">
+        <v>23</v>
+      </c>
+      <c r="N9" s="143">
+        <v>12</v>
+      </c>
+      <c r="O9" s="144">
+        <v>13</v>
+      </c>
+      <c r="P9" s="145">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="144">
+        <v>15</v>
+      </c>
+      <c r="R9" s="145">
+        <v>16</v>
+      </c>
+      <c r="S9" s="144">
+        <v>17</v>
+      </c>
+      <c r="T9" s="145">
+        <v>18</v>
+      </c>
+      <c r="U9" s="144">
+        <v>19</v>
+      </c>
+      <c r="V9" s="145">
+        <v>20</v>
+      </c>
+      <c r="W9" s="155">
+        <v>21</v>
+      </c>
+      <c r="X9" s="145">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="146">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="143">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="144">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="145">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="155">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="145">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="144">
+        <v>17</v>
+      </c>
+      <c r="AF9" s="145">
+        <v>18</v>
+      </c>
+      <c r="AG9" s="144">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="145">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="144">
+        <v>21</v>
+      </c>
+      <c r="AJ9" s="145">
+        <v>22</v>
+      </c>
+      <c r="AK9" s="146">
+        <v>23</v>
+      </c>
+      <c r="AL9" s="143">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="144">
+        <v>13</v>
+      </c>
+      <c r="AN9" s="145">
+        <v>14</v>
+      </c>
+      <c r="AO9" s="144">
+        <v>15</v>
+      </c>
+      <c r="AP9" s="154">
+        <v>16</v>
+      </c>
+      <c r="AQ9" s="144">
+        <v>17</v>
+      </c>
+      <c r="AR9" s="145">
+        <v>18</v>
+      </c>
+      <c r="AS9" s="144">
+        <v>19</v>
+      </c>
+      <c r="AT9" s="145">
+        <v>20</v>
+      </c>
+      <c r="AU9" s="144">
+        <v>21</v>
+      </c>
+      <c r="AV9" s="145">
+        <v>22</v>
+      </c>
+      <c r="AW9" s="146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
+      <c r="B10" s="147">
+        <v>24</v>
+      </c>
+      <c r="C10" s="148">
+        <v>25</v>
+      </c>
+      <c r="D10" s="149">
+        <v>26</v>
+      </c>
+      <c r="E10" s="148">
+        <v>27</v>
+      </c>
+      <c r="F10" s="149">
+        <v>28</v>
+      </c>
+      <c r="G10" s="152">
+        <v>29</v>
+      </c>
+      <c r="H10" s="149">
+        <v>30</v>
+      </c>
+      <c r="I10" s="148">
+        <v>31</v>
+      </c>
+      <c r="J10" s="149">
+        <v>32</v>
+      </c>
+      <c r="K10" s="148">
+        <v>33</v>
+      </c>
+      <c r="L10" s="158">
+        <v>34</v>
+      </c>
+      <c r="M10" s="150">
+        <v>35</v>
+      </c>
+      <c r="N10" s="147">
+        <v>24</v>
+      </c>
+      <c r="O10" s="148">
+        <v>25</v>
+      </c>
+      <c r="P10" s="158">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="148">
+        <v>27</v>
+      </c>
+      <c r="R10" s="149">
+        <v>28</v>
+      </c>
+      <c r="S10" s="148">
+        <v>29</v>
+      </c>
+      <c r="T10" s="149">
+        <v>30</v>
+      </c>
+      <c r="U10" s="148">
+        <v>31</v>
+      </c>
+      <c r="V10" s="149">
+        <v>32</v>
+      </c>
+      <c r="W10" s="148">
+        <v>33</v>
+      </c>
+      <c r="X10" s="149">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="156">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="160">
+        <v>24</v>
+      </c>
+      <c r="AA10" s="148">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="149">
+        <v>26</v>
+      </c>
+      <c r="AC10" s="148">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="149">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="148">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="149">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="148">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="149">
+        <v>32</v>
+      </c>
+      <c r="AI10" s="152">
+        <v>33</v>
+      </c>
+      <c r="AJ10" s="149">
+        <v>34</v>
+      </c>
+      <c r="AK10" s="150">
+        <v>35</v>
+      </c>
+      <c r="AL10" s="147">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="148">
+        <v>25</v>
+      </c>
+      <c r="AN10" s="158">
+        <v>26</v>
+      </c>
+      <c r="AO10" s="148">
+        <v>27</v>
+      </c>
+      <c r="AP10" s="149">
+        <v>28</v>
+      </c>
+      <c r="AQ10" s="148">
+        <v>29</v>
+      </c>
+      <c r="AR10" s="149">
+        <v>30</v>
+      </c>
+      <c r="AS10" s="148">
+        <v>31</v>
+      </c>
+      <c r="AT10" s="149">
+        <v>32</v>
+      </c>
+      <c r="AU10" s="148">
+        <v>33</v>
+      </c>
+      <c r="AV10" s="158">
+        <v>34</v>
+      </c>
+      <c r="AW10" s="150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126">
+        <v>3</v>
+      </c>
+      <c r="B11" s="157">
+        <v>0</v>
+      </c>
+      <c r="C11" s="139">
+        <v>1</v>
+      </c>
+      <c r="D11" s="140">
+        <v>2</v>
+      </c>
+      <c r="E11" s="139">
+        <v>3</v>
+      </c>
+      <c r="F11" s="141">
+        <v>4</v>
+      </c>
+      <c r="G11" s="139">
+        <v>5</v>
+      </c>
+      <c r="H11" s="140">
+        <v>6</v>
+      </c>
+      <c r="I11" s="139">
+        <v>7</v>
+      </c>
+      <c r="J11" s="140">
+        <v>8</v>
+      </c>
+      <c r="K11" s="139">
+        <v>9</v>
+      </c>
+      <c r="L11" s="140">
+        <v>10</v>
+      </c>
+      <c r="M11" s="142">
+        <v>11</v>
+      </c>
+      <c r="N11" s="138">
+        <v>0</v>
+      </c>
+      <c r="O11" s="153">
+        <v>1</v>
+      </c>
+      <c r="P11" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="139">
+        <v>3</v>
+      </c>
+      <c r="R11" s="140">
+        <v>4</v>
+      </c>
+      <c r="S11" s="139">
+        <v>5</v>
+      </c>
+      <c r="T11" s="140">
+        <v>6</v>
+      </c>
+      <c r="U11" s="139">
+        <v>7</v>
+      </c>
+      <c r="V11" s="140">
+        <v>8</v>
+      </c>
+      <c r="W11" s="139">
+        <v>9</v>
+      </c>
+      <c r="X11" s="140">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="142">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="138">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="139">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="140">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="139">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="140">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="139">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="140">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="139">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="140">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="139">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="140">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="159">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="138">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="153">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="140">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="139">
+        <v>3</v>
+      </c>
+      <c r="AP11" s="140">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="139">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="140">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="139">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="140">
+        <v>8</v>
+      </c>
+      <c r="AU11" s="139">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="140">
+        <v>10</v>
+      </c>
+      <c r="AW11" s="142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
+      <c r="B12" s="143">
+        <v>12</v>
+      </c>
+      <c r="C12" s="144">
+        <v>13</v>
+      </c>
+      <c r="D12" s="145">
+        <v>14</v>
+      </c>
+      <c r="E12" s="144">
+        <v>15</v>
+      </c>
+      <c r="F12" s="145">
+        <v>16</v>
+      </c>
+      <c r="G12" s="144">
+        <v>17</v>
+      </c>
+      <c r="H12" s="154">
+        <v>18</v>
+      </c>
+      <c r="I12" s="144">
+        <v>19</v>
+      </c>
+      <c r="J12" s="145">
+        <v>20</v>
+      </c>
+      <c r="K12" s="144">
+        <v>21</v>
+      </c>
+      <c r="L12" s="145">
+        <v>22</v>
+      </c>
+      <c r="M12" s="146">
+        <v>23</v>
+      </c>
+      <c r="N12" s="143">
+        <v>12</v>
+      </c>
+      <c r="O12" s="144">
+        <v>13</v>
+      </c>
+      <c r="P12" s="145">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="155">
+        <v>15</v>
+      </c>
+      <c r="R12" s="145">
+        <v>16</v>
+      </c>
+      <c r="S12" s="144">
+        <v>17</v>
+      </c>
+      <c r="T12" s="145">
+        <v>18</v>
+      </c>
+      <c r="U12" s="155">
+        <v>19</v>
+      </c>
+      <c r="V12" s="145">
+        <v>20</v>
+      </c>
+      <c r="W12" s="144">
+        <v>21</v>
+      </c>
+      <c r="X12" s="145">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="146">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="143">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="144">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="154">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="144">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="145">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="144">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="145">
+        <v>18</v>
+      </c>
+      <c r="AG12" s="144">
+        <v>19</v>
+      </c>
+      <c r="AH12" s="145">
+        <v>20</v>
+      </c>
+      <c r="AI12" s="155">
+        <v>21</v>
+      </c>
+      <c r="AJ12" s="145">
+        <v>22</v>
+      </c>
+      <c r="AK12" s="146">
+        <v>23</v>
+      </c>
+      <c r="AL12" s="143">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="144">
+        <v>13</v>
+      </c>
+      <c r="AN12" s="145">
+        <v>14</v>
+      </c>
+      <c r="AO12" s="144">
+        <v>15</v>
+      </c>
+      <c r="AP12" s="145">
+        <v>16</v>
+      </c>
+      <c r="AQ12" s="144">
+        <v>17</v>
+      </c>
+      <c r="AR12" s="145">
+        <v>18</v>
+      </c>
+      <c r="AS12" s="144">
+        <v>19</v>
+      </c>
+      <c r="AT12" s="145">
+        <v>20</v>
+      </c>
+      <c r="AU12" s="155">
+        <v>21</v>
+      </c>
+      <c r="AV12" s="145">
+        <v>22</v>
+      </c>
+      <c r="AW12" s="161">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
+      <c r="B13" s="147">
+        <v>24</v>
+      </c>
+      <c r="C13" s="148">
+        <v>25</v>
+      </c>
+      <c r="D13" s="149">
+        <v>26</v>
+      </c>
+      <c r="E13" s="148">
+        <v>27</v>
+      </c>
+      <c r="F13" s="149">
+        <v>28</v>
+      </c>
+      <c r="G13" s="148">
+        <v>29</v>
+      </c>
+      <c r="H13" s="149">
+        <v>30</v>
+      </c>
+      <c r="I13" s="148">
+        <v>31</v>
+      </c>
+      <c r="J13" s="158">
+        <v>32</v>
+      </c>
+      <c r="K13" s="148">
+        <v>33</v>
+      </c>
+      <c r="L13" s="158">
+        <v>34</v>
+      </c>
+      <c r="M13" s="150">
+        <v>35</v>
+      </c>
+      <c r="N13" s="147">
+        <v>24</v>
+      </c>
+      <c r="O13" s="148">
+        <v>25</v>
+      </c>
+      <c r="P13" s="149">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="148">
+        <v>27</v>
+      </c>
+      <c r="R13" s="149">
+        <v>28</v>
+      </c>
+      <c r="S13" s="152">
+        <v>29</v>
+      </c>
+      <c r="T13" s="149">
+        <v>30</v>
+      </c>
+      <c r="U13" s="148">
+        <v>31</v>
+      </c>
+      <c r="V13" s="149">
+        <v>32</v>
+      </c>
+      <c r="W13" s="148">
+        <v>33</v>
+      </c>
+      <c r="X13" s="149">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="156">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="147">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="148">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="149">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="148">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="158">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="148">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="149">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="152">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="149">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="148">
+        <v>33</v>
+      </c>
+      <c r="AJ13" s="149">
+        <v>34</v>
+      </c>
+      <c r="AK13" s="150">
+        <v>35</v>
+      </c>
+      <c r="AL13" s="147">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="148">
+        <v>25</v>
+      </c>
+      <c r="AN13" s="158">
+        <v>26</v>
+      </c>
+      <c r="AO13" s="148">
+        <v>27</v>
+      </c>
+      <c r="AP13" s="158">
+        <v>28</v>
+      </c>
+      <c r="AQ13" s="148">
+        <v>29</v>
+      </c>
+      <c r="AR13" s="149">
+        <v>30</v>
+      </c>
+      <c r="AS13" s="148">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="149">
+        <v>32</v>
+      </c>
+      <c r="AU13" s="148">
+        <v>33</v>
+      </c>
+      <c r="AV13" s="149">
+        <v>34</v>
+      </c>
+      <c r="AW13" s="150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="126">
+        <v>4</v>
+      </c>
+      <c r="B14" s="138">
+        <v>0</v>
+      </c>
+      <c r="C14" s="139">
+        <v>1</v>
+      </c>
+      <c r="D14" s="140">
+        <v>2</v>
+      </c>
+      <c r="E14" s="139">
+        <v>3</v>
+      </c>
+      <c r="F14" s="140">
+        <v>4</v>
+      </c>
+      <c r="G14" s="139">
+        <v>5</v>
+      </c>
+      <c r="H14" s="140">
+        <v>6</v>
+      </c>
+      <c r="I14" s="139">
+        <v>7</v>
+      </c>
+      <c r="J14" s="140">
+        <v>8</v>
+      </c>
+      <c r="K14" s="139">
+        <v>9</v>
+      </c>
+      <c r="L14" s="140">
+        <v>10</v>
+      </c>
+      <c r="M14" s="159">
+        <v>11</v>
+      </c>
+      <c r="N14" s="157">
+        <v>0</v>
+      </c>
+      <c r="O14" s="139">
+        <v>1</v>
+      </c>
+      <c r="P14" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="139">
+        <v>3</v>
+      </c>
+      <c r="R14" s="140">
+        <v>4</v>
+      </c>
+      <c r="S14" s="139">
+        <v>5</v>
+      </c>
+      <c r="T14" s="140">
+        <v>6</v>
+      </c>
+      <c r="U14" s="139">
+        <v>7</v>
+      </c>
+      <c r="V14" s="140">
+        <v>8</v>
+      </c>
+      <c r="W14" s="139">
+        <v>9</v>
+      </c>
+      <c r="X14" s="141">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="142">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="138">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="139">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="140">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="139">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="140">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="153">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="140">
+        <v>6</v>
+      </c>
+      <c r="AG14" s="139">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="140">
+        <v>8</v>
+      </c>
+      <c r="AI14" s="153">
+        <v>9</v>
+      </c>
+      <c r="AJ14" s="140">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="142">
+        <v>11</v>
+      </c>
+      <c r="AL14" s="157">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="139">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="140">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="139">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="140">
+        <v>4</v>
+      </c>
+      <c r="AQ14" s="139">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="140">
+        <v>6</v>
+      </c>
+      <c r="AS14" s="139">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="140">
+        <v>8</v>
+      </c>
+      <c r="AU14" s="153">
+        <v>9</v>
+      </c>
+      <c r="AV14" s="140">
+        <v>10</v>
+      </c>
+      <c r="AW14" s="142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
+      <c r="B15" s="143">
+        <v>12</v>
+      </c>
+      <c r="C15" s="155">
+        <v>13</v>
+      </c>
+      <c r="D15" s="145">
+        <v>14</v>
+      </c>
+      <c r="E15" s="144">
+        <v>15</v>
+      </c>
+      <c r="F15" s="145">
+        <v>16</v>
+      </c>
+      <c r="G15" s="144">
+        <v>17</v>
+      </c>
+      <c r="H15" s="145">
+        <v>18</v>
+      </c>
+      <c r="I15" s="144">
+        <v>19</v>
+      </c>
+      <c r="J15" s="145">
+        <v>20</v>
+      </c>
+      <c r="K15" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15" s="145">
+        <v>22</v>
+      </c>
+      <c r="M15" s="146">
+        <v>23</v>
+      </c>
+      <c r="N15" s="143">
+        <v>12</v>
+      </c>
+      <c r="O15" s="144">
+        <v>13</v>
+      </c>
+      <c r="P15" s="145">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="144">
+        <v>15</v>
+      </c>
+      <c r="R15" s="145">
+        <v>16</v>
+      </c>
+      <c r="S15" s="144">
+        <v>17</v>
+      </c>
+      <c r="T15" s="145">
+        <v>18</v>
+      </c>
+      <c r="U15" s="144">
+        <v>19</v>
+      </c>
+      <c r="V15" s="154">
+        <v>20</v>
+      </c>
+      <c r="W15" s="144">
+        <v>21</v>
+      </c>
+      <c r="X15" s="145">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="146">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="151">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="144">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="145">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="144">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="145">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="144">
+        <v>17</v>
+      </c>
+      <c r="AF15" s="145">
+        <v>18</v>
+      </c>
+      <c r="AG15" s="144">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="145">
+        <v>20</v>
+      </c>
+      <c r="AI15" s="144">
+        <v>21</v>
+      </c>
+      <c r="AJ15" s="145">
+        <v>22</v>
+      </c>
+      <c r="AK15" s="146">
+        <v>23</v>
+      </c>
+      <c r="AL15" s="143">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="144">
+        <v>13</v>
+      </c>
+      <c r="AN15" s="154">
+        <v>14</v>
+      </c>
+      <c r="AO15" s="144">
+        <v>15</v>
+      </c>
+      <c r="AP15" s="145">
+        <v>16</v>
+      </c>
+      <c r="AQ15" s="144">
+        <v>17</v>
+      </c>
+      <c r="AR15" s="145">
+        <v>18</v>
+      </c>
+      <c r="AS15" s="144">
+        <v>19</v>
+      </c>
+      <c r="AT15" s="145">
+        <v>20</v>
+      </c>
+      <c r="AU15" s="144">
+        <v>21</v>
+      </c>
+      <c r="AV15" s="145">
+        <v>22</v>
+      </c>
+      <c r="AW15" s="146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="127"/>
+      <c r="B16" s="147">
+        <v>24</v>
+      </c>
+      <c r="C16" s="148">
+        <v>25</v>
+      </c>
+      <c r="D16" s="149">
+        <v>26</v>
+      </c>
+      <c r="E16" s="148">
+        <v>27</v>
+      </c>
+      <c r="F16" s="158">
+        <v>28</v>
+      </c>
+      <c r="G16" s="148">
+        <v>29</v>
+      </c>
+      <c r="H16" s="158">
+        <v>30</v>
+      </c>
+      <c r="I16" s="148">
+        <v>31</v>
+      </c>
+      <c r="J16" s="149">
+        <v>32</v>
+      </c>
+      <c r="K16" s="148">
+        <v>33</v>
+      </c>
+      <c r="L16" s="149">
+        <v>34</v>
+      </c>
+      <c r="M16" s="150">
+        <v>35</v>
+      </c>
+      <c r="N16" s="147">
+        <v>24</v>
+      </c>
+      <c r="O16" s="152">
+        <v>25</v>
+      </c>
+      <c r="P16" s="149">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="148">
+        <v>27</v>
+      </c>
+      <c r="R16" s="149">
+        <v>28</v>
+      </c>
+      <c r="S16" s="152">
+        <v>29</v>
+      </c>
+      <c r="T16" s="149">
+        <v>30</v>
+      </c>
+      <c r="U16" s="148">
+        <v>31</v>
+      </c>
+      <c r="V16" s="149">
+        <v>32</v>
+      </c>
+      <c r="W16" s="148">
+        <v>33</v>
+      </c>
+      <c r="X16" s="149">
+        <v>34</v>
+      </c>
+      <c r="Y16" s="150">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="147">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="148">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="149">
+        <v>26</v>
+      </c>
+      <c r="AC16" s="148">
+        <v>27</v>
+      </c>
+      <c r="AD16" s="149">
+        <v>28</v>
+      </c>
+      <c r="AE16" s="148">
+        <v>29</v>
+      </c>
+      <c r="AF16" s="158">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="148">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="149">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="148">
+        <v>33</v>
+      </c>
+      <c r="AJ16" s="158">
+        <v>34</v>
+      </c>
+      <c r="AK16" s="150">
+        <v>35</v>
+      </c>
+      <c r="AL16" s="147">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="148">
+        <v>25</v>
+      </c>
+      <c r="AN16" s="149">
+        <v>26</v>
+      </c>
+      <c r="AO16" s="148">
+        <v>27</v>
+      </c>
+      <c r="AP16" s="149">
+        <v>28</v>
+      </c>
+      <c r="AQ16" s="152">
+        <v>29</v>
+      </c>
+      <c r="AR16" s="149">
+        <v>30</v>
+      </c>
+      <c r="AS16" s="148">
+        <v>31</v>
+      </c>
+      <c r="AT16" s="149">
+        <v>32</v>
+      </c>
+      <c r="AU16" s="148">
+        <v>33</v>
+      </c>
+      <c r="AV16" s="158">
+        <v>34</v>
+      </c>
+      <c r="AW16" s="150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="126">
+        <v>5</v>
+      </c>
+      <c r="B17" s="138">
+        <v>0</v>
+      </c>
+      <c r="C17" s="139">
+        <v>1</v>
+      </c>
+      <c r="D17" s="140">
+        <v>2</v>
+      </c>
+      <c r="E17" s="162">
+        <v>3</v>
+      </c>
+      <c r="F17" s="140">
+        <v>4</v>
+      </c>
+      <c r="G17" s="139">
+        <v>5</v>
+      </c>
+      <c r="H17" s="140">
+        <v>6</v>
+      </c>
+      <c r="I17" s="139">
+        <v>7</v>
+      </c>
+      <c r="J17" s="140">
+        <v>8</v>
+      </c>
+      <c r="K17" s="139">
+        <v>9</v>
+      </c>
+      <c r="L17" s="140">
+        <v>10</v>
+      </c>
+      <c r="M17" s="142">
+        <v>11</v>
+      </c>
+      <c r="N17" s="138">
+        <v>0</v>
+      </c>
+      <c r="O17" s="139">
+        <v>1</v>
+      </c>
+      <c r="P17" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="139">
+        <v>3</v>
+      </c>
+      <c r="R17" s="140">
+        <v>4</v>
+      </c>
+      <c r="S17" s="139">
+        <v>5</v>
+      </c>
+      <c r="T17" s="140">
+        <v>6</v>
+      </c>
+      <c r="U17" s="139">
+        <v>7</v>
+      </c>
+      <c r="V17" s="165">
+        <v>8</v>
+      </c>
+      <c r="W17" s="139">
+        <v>9</v>
+      </c>
+      <c r="X17" s="140">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="142">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="138">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="139">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="140">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="139">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="165">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="139">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="140">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="139">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="140">
+        <v>8</v>
+      </c>
+      <c r="AI17" s="139">
+        <v>9</v>
+      </c>
+      <c r="AJ17" s="165">
+        <v>10</v>
+      </c>
+      <c r="AK17" s="142">
+        <v>11</v>
+      </c>
+      <c r="AL17" s="138">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="162">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="140">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="139">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="140">
+        <v>4</v>
+      </c>
+      <c r="AQ17" s="139">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="140">
+        <v>6</v>
+      </c>
+      <c r="AS17" s="162">
+        <v>7</v>
+      </c>
+      <c r="AT17" s="140">
+        <v>8</v>
+      </c>
+      <c r="AU17" s="139">
+        <v>9</v>
+      </c>
+      <c r="AV17" s="140">
+        <v>10</v>
+      </c>
+      <c r="AW17" s="142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="143">
+        <v>12</v>
+      </c>
+      <c r="C18" s="164">
+        <v>13</v>
+      </c>
+      <c r="D18" s="145">
+        <v>14</v>
+      </c>
+      <c r="E18" s="144">
+        <v>15</v>
+      </c>
+      <c r="F18" s="145">
+        <v>16</v>
+      </c>
+      <c r="G18" s="144">
+        <v>17</v>
+      </c>
+      <c r="H18" s="145">
+        <v>18</v>
+      </c>
+      <c r="I18" s="144">
+        <v>19</v>
+      </c>
+      <c r="J18" s="166">
+        <v>20</v>
+      </c>
+      <c r="K18" s="144">
+        <v>21</v>
+      </c>
+      <c r="L18" s="145">
+        <v>22</v>
+      </c>
+      <c r="M18" s="146">
+        <v>23</v>
+      </c>
+      <c r="N18" s="143">
+        <v>12</v>
+      </c>
+      <c r="O18" s="144">
+        <v>13</v>
+      </c>
+      <c r="P18" s="145">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="164">
+        <v>15</v>
+      </c>
+      <c r="R18" s="145">
+        <v>16</v>
+      </c>
+      <c r="S18" s="144">
+        <v>17</v>
+      </c>
+      <c r="T18" s="145">
+        <v>18</v>
+      </c>
+      <c r="U18" s="144">
+        <v>19</v>
+      </c>
+      <c r="V18" s="145">
+        <v>20</v>
+      </c>
+      <c r="W18" s="144">
+        <v>21</v>
+      </c>
+      <c r="X18" s="166">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="146">
+        <v>23</v>
+      </c>
+      <c r="Z18" s="143">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="164">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="145">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="144">
+        <v>15</v>
+      </c>
+      <c r="AD18" s="145">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="144">
+        <v>17</v>
+      </c>
+      <c r="AF18" s="145">
+        <v>18</v>
+      </c>
+      <c r="AG18" s="144">
+        <v>19</v>
+      </c>
+      <c r="AH18" s="166">
+        <v>20</v>
+      </c>
+      <c r="AI18" s="144">
+        <v>21</v>
+      </c>
+      <c r="AJ18" s="145">
+        <v>22</v>
+      </c>
+      <c r="AK18" s="146">
+        <v>23</v>
+      </c>
+      <c r="AL18" s="143">
+        <v>12</v>
+      </c>
+      <c r="AM18" s="144">
+        <v>13</v>
+      </c>
+      <c r="AN18" s="145">
+        <v>14</v>
+      </c>
+      <c r="AO18" s="164">
+        <v>15</v>
+      </c>
+      <c r="AP18" s="145">
+        <v>16</v>
+      </c>
+      <c r="AQ18" s="144">
+        <v>17</v>
+      </c>
+      <c r="AR18" s="145">
+        <v>18</v>
+      </c>
+      <c r="AS18" s="144">
+        <v>19</v>
+      </c>
+      <c r="AT18" s="145">
+        <v>20</v>
+      </c>
+      <c r="AU18" s="144">
+        <v>21</v>
+      </c>
+      <c r="AV18" s="166">
+        <v>22</v>
+      </c>
+      <c r="AW18" s="146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="127"/>
+      <c r="B19" s="147">
+        <v>24</v>
+      </c>
+      <c r="C19" s="148">
+        <v>25</v>
+      </c>
+      <c r="D19" s="149">
+        <v>26</v>
+      </c>
+      <c r="E19" s="148">
+        <v>27</v>
+      </c>
+      <c r="F19" s="163">
+        <v>28</v>
+      </c>
+      <c r="G19" s="148">
+        <v>29</v>
+      </c>
+      <c r="H19" s="149">
+        <v>30</v>
+      </c>
+      <c r="I19" s="148">
+        <v>31</v>
+      </c>
+      <c r="J19" s="149">
+        <v>32</v>
+      </c>
+      <c r="K19" s="148">
+        <v>33</v>
+      </c>
+      <c r="L19" s="163">
+        <v>34</v>
+      </c>
+      <c r="M19" s="150">
+        <v>35</v>
+      </c>
+      <c r="N19" s="147">
+        <v>24</v>
+      </c>
+      <c r="O19" s="167">
+        <v>25</v>
+      </c>
+      <c r="P19" s="149">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="148">
+        <v>27</v>
+      </c>
+      <c r="R19" s="149">
+        <v>28</v>
+      </c>
+      <c r="S19" s="148">
+        <v>29</v>
+      </c>
+      <c r="T19" s="149">
+        <v>30</v>
+      </c>
+      <c r="U19" s="167">
+        <v>31</v>
+      </c>
+      <c r="V19" s="149">
+        <v>32</v>
+      </c>
+      <c r="W19" s="148">
+        <v>33</v>
+      </c>
+      <c r="X19" s="149">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="150">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="147">
+        <v>24</v>
+      </c>
+      <c r="AA19" s="148">
+        <v>25</v>
+      </c>
+      <c r="AB19" s="149">
+        <v>26</v>
+      </c>
+      <c r="AC19" s="167">
+        <v>27</v>
+      </c>
+      <c r="AD19" s="149">
+        <v>28</v>
+      </c>
+      <c r="AE19" s="148">
+        <v>29</v>
+      </c>
+      <c r="AF19" s="149">
+        <v>30</v>
+      </c>
+      <c r="AG19" s="148">
+        <v>31</v>
+      </c>
+      <c r="AH19" s="149">
+        <v>32</v>
+      </c>
+      <c r="AI19" s="148">
+        <v>33</v>
+      </c>
+      <c r="AJ19" s="149">
+        <v>34</v>
+      </c>
+      <c r="AK19" s="150">
+        <v>35</v>
+      </c>
+      <c r="AL19" s="147">
+        <v>24</v>
+      </c>
+      <c r="AM19" s="148">
+        <v>25</v>
+      </c>
+      <c r="AN19" s="149">
+        <v>26</v>
+      </c>
+      <c r="AO19" s="148">
+        <v>27</v>
+      </c>
+      <c r="AP19" s="149">
+        <v>28</v>
+      </c>
+      <c r="AQ19" s="148">
+        <v>29</v>
+      </c>
+      <c r="AR19" s="149">
+        <v>30</v>
+      </c>
+      <c r="AS19" s="148">
+        <v>31</v>
+      </c>
+      <c r="AT19" s="163">
+        <v>32</v>
+      </c>
+      <c r="AU19" s="148">
+        <v>33</v>
+      </c>
+      <c r="AV19" s="149">
+        <v>34</v>
+      </c>
+      <c r="AW19" s="150">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2221145-AAF8-456B-B26D-46BDC04FD163}">
   <dimension ref="A1:AV30"/>
   <sheetViews>
@@ -13279,14 +16141,14 @@
       <selection activeCell="H13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
+    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13336,7 +16198,7 @@
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -13386,7 +16248,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -13436,7 +16298,7 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
     </row>
-    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -13486,7 +16348,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -13536,7 +16398,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -13586,7 +16448,7 @@
       <c r="AU6" s="13"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -13636,7 +16498,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -13686,7 +16548,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -13736,7 +16598,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -13786,7 +16648,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13836,7 +16698,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -13886,7 +16748,7 @@
       <c r="AU12" s="13"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -13936,7 +16798,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13986,7 +16848,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -14036,7 +16898,7 @@
       <c r="AU15" s="13"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -14086,7 +16948,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -14136,7 +16998,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -14186,7 +17048,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -14236,7 +17098,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -14286,7 +17148,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -14336,7 +17198,7 @@
       <c r="AU21" s="13"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -14386,7 +17248,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -14436,7 +17298,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -14486,7 +17348,7 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -14536,7 +17398,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -14586,7 +17448,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -14636,7 +17498,7 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -14686,7 +17548,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -14736,7 +17598,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -14800,34 +17662,34 @@
       <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="13" width="5.69140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.3046875" style="1"/>
+    <col min="2" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120">
         <v>8</v>
       </c>
       <c r="B2" s="17"/>
@@ -14843,8 +17705,8 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
       <c r="D3" s="16"/>
@@ -14858,8 +17720,8 @@
       <c r="L3" s="16"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -14873,8 +17735,8 @@
       <c r="L4" s="23"/>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110">
+    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>8</v>
       </c>
       <c r="B5" s="28"/>
@@ -14889,8 +17751,8 @@
       <c r="L5" s="29"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -14903,8 +17765,8 @@
       <c r="K6" s="16"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -14918,8 +17780,8 @@
       <c r="L7" s="31"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110">
+    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>8</v>
       </c>
       <c r="B8" s="17"/>
@@ -14935,8 +17797,8 @@
       <c r="L8" s="18"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -14950,8 +17812,8 @@
       <c r="L9" s="16"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="31"/>
       <c r="D10" s="23"/>
       <c r="E10" s="66"/>
@@ -14964,8 +17826,8 @@
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110">
+    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>8</v>
       </c>
       <c r="B11" s="17"/>
@@ -14981,8 +17843,8 @@
       <c r="L11" s="18"/>
       <c r="M11" s="70"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -14996,8 +17858,8 @@
       <c r="L12" s="16"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="22"/>
       <c r="C13" s="66"/>
       <c r="D13" s="23"/>
@@ -15011,8 +17873,8 @@
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>8</v>
       </c>
       <c r="B14" s="17"/>
@@ -15028,8 +17890,8 @@
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="58"/>
@@ -15043,8 +17905,8 @@
       <c r="L15" s="33"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -15058,8 +17920,8 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="110">
+    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120">
         <v>8</v>
       </c>
       <c r="B17" s="17"/>
@@ -15075,8 +17937,8 @@
       <c r="L17" s="59"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -15090,8 +17952,8 @@
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110"/>
+    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -15105,8 +17967,8 @@
       <c r="L19" s="23"/>
       <c r="M19" s="72"/>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>8</v>
       </c>
       <c r="B20" s="61"/>
@@ -15122,8 +17984,8 @@
       <c r="L20" s="32"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -15137,8 +17999,8 @@
       <c r="L21" s="16"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -15152,8 +18014,8 @@
       <c r="L22" s="23"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110">
+    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
         <v>8</v>
       </c>
       <c r="B23" s="17"/>
@@ -15169,8 +18031,8 @@
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -15184,8 +18046,8 @@
       <c r="L24" s="58"/>
       <c r="M24" s="60"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -15199,8 +18061,8 @@
       <c r="L25" s="23"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="110">
+    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120">
         <v>8</v>
       </c>
       <c r="B26" s="17"/>
@@ -15216,8 +18078,8 @@
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -15231,8 +18093,8 @@
       <c r="L27" s="16"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110"/>
+    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -15246,8 +18108,8 @@
       <c r="L28" s="31"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="110">
+    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
         <v>8</v>
       </c>
       <c r="B29" s="17"/>
@@ -15261,8 +18123,8 @@
       <c r="L29" s="18"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="120"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -15276,8 +18138,8 @@
       <c r="L30" s="16"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -15291,7 +18153,7 @@
       <c r="L31" s="23"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B1:M1"/>
@@ -15319,34 +18181,34 @@
       <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="13" width="5.69140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.3046875" style="1"/>
+    <col min="2" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120">
         <v>8</v>
       </c>
       <c r="B2" s="17">
@@ -15386,8 +18248,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
       <c r="B3" s="20">
         <v>13</v>
       </c>
@@ -15425,8 +18287,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="22">
         <v>25</v>
       </c>
@@ -15464,8 +18326,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110">
+    <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>8</v>
       </c>
       <c r="B5" s="28">
@@ -15505,8 +18367,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="20">
         <v>13</v>
       </c>
@@ -15544,8 +18406,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="22">
         <v>25</v>
       </c>
@@ -15583,8 +18445,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110">
+    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>8</v>
       </c>
       <c r="B8" s="17">
@@ -15624,8 +18486,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="20">
         <v>13</v>
       </c>
@@ -15663,8 +18525,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="31">
         <v>25</v>
       </c>
@@ -15702,8 +18564,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110">
+    <row r="11" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>8</v>
       </c>
       <c r="B11" s="17">
@@ -15743,8 +18605,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="20">
         <v>13</v>
       </c>
@@ -15782,8 +18644,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="22">
         <v>25</v>
       </c>
@@ -15821,8 +18683,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>8</v>
       </c>
       <c r="B14" s="17">
@@ -15862,8 +18724,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20">
         <v>13</v>
       </c>
@@ -15901,8 +18763,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22">
         <v>25</v>
       </c>
@@ -15940,8 +18802,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="110">
+    <row r="17" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120">
         <v>8</v>
       </c>
       <c r="B17" s="17">
@@ -15981,8 +18843,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
       <c r="B18" s="20">
         <v>13</v>
       </c>
@@ -16020,8 +18882,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110"/>
+    <row r="19" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="22">
         <v>25</v>
       </c>
@@ -16059,8 +18921,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>8</v>
       </c>
       <c r="B20" s="61">
@@ -16100,8 +18962,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -16139,8 +19001,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22">
         <v>25</v>
       </c>
@@ -16178,8 +19040,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110">
+    <row r="23" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
         <v>8</v>
       </c>
       <c r="B23" s="17">
@@ -16219,8 +19081,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120"/>
       <c r="B24" s="20">
         <v>13</v>
       </c>
@@ -16258,8 +19120,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
       <c r="B25" s="22">
         <v>25</v>
       </c>
@@ -16297,8 +19159,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="110">
+    <row r="26" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120">
         <v>8</v>
       </c>
       <c r="B26" s="17">
@@ -16338,8 +19200,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -16377,8 +19239,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110"/>
+    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -16416,8 +19278,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="110">
+    <row r="29" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
         <v>8</v>
       </c>
       <c r="B29" s="17">
@@ -16457,8 +19319,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="120"/>
       <c r="B30" s="20">
         <v>13</v>
       </c>
@@ -16496,8 +19358,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -16535,20 +19397,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16563,77 +19425,77 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:AW31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.53515625" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.3046875" style="1"/>
+    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5703125" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="111" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="111" t="s">
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="113"/>
-    </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110">
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="123"/>
+    </row>
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120">
         <v>18</v>
       </c>
       <c r="B2" s="17"/>
@@ -16685,8 +19547,8 @@
       <c r="AV2" s="47"/>
       <c r="AW2" s="48"/>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
       <c r="B3" s="20"/>
       <c r="C3" s="33"/>
       <c r="D3" s="16"/>
@@ -16736,8 +19598,8 @@
       <c r="AV3" s="54"/>
       <c r="AW3" s="50"/>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -16787,8 +19649,8 @@
       <c r="AV4" s="52"/>
       <c r="AW4" s="53"/>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110">
+    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>18</v>
       </c>
       <c r="B5" s="28"/>
@@ -16840,8 +19702,8 @@
       <c r="AV5" s="29"/>
       <c r="AW5" s="30"/>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="20"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -16887,8 +19749,8 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -16938,8 +19800,8 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>18</v>
       </c>
       <c r="B8" s="17"/>
@@ -16987,8 +19849,8 @@
       <c r="AU8" s="18"/>
       <c r="AW8" s="32"/>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -17038,8 +19900,8 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="21"/>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="31"/>
       <c r="D10" s="23"/>
       <c r="E10" s="31"/>
@@ -17085,8 +19947,8 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>18</v>
       </c>
       <c r="B11" s="17"/>
@@ -17136,8 +19998,8 @@
       <c r="AV11" s="32"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -17187,8 +20049,8 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
       <c r="D13" s="23"/>
@@ -17236,8 +20098,8 @@
       <c r="AV13" s="43"/>
       <c r="AW13" s="45"/>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>18</v>
       </c>
       <c r="B14" s="17"/>
@@ -17289,8 +20151,8 @@
       <c r="AV14" s="47"/>
       <c r="AW14" s="48"/>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="33"/>
@@ -17340,8 +20202,8 @@
       <c r="AV15" s="41"/>
       <c r="AW15" s="50"/>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -17391,8 +20253,8 @@
       <c r="AV16" s="52"/>
       <c r="AW16" s="53"/>
     </row>
-    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="110">
+    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120">
         <v>18</v>
       </c>
       <c r="B17" s="17"/>
@@ -17444,8 +20306,8 @@
       <c r="AV17" s="29"/>
       <c r="AW17" s="30"/>
     </row>
-    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
+    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -17495,8 +20357,8 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110"/>
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -17546,8 +20408,8 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>18</v>
       </c>
       <c r="B20" s="61"/>
@@ -17599,8 +20461,8 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -17650,8 +20512,8 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -17701,8 +20563,8 @@
       <c r="AV22" s="31"/>
       <c r="AW22" s="81"/>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110">
+    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
         <v>18</v>
       </c>
       <c r="B23" s="17"/>
@@ -17754,8 +20616,8 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -17805,8 +20667,8 @@
       <c r="AV24" s="16"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -17856,8 +20718,8 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="110">
+    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120">
         <v>18</v>
       </c>
       <c r="B26" s="17"/>
@@ -17907,8 +20769,8 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -17958,8 +20820,8 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110"/>
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="66"/>
@@ -18007,8 +20869,8 @@
       <c r="AV28" s="23"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="110">
+    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
         <v>18</v>
       </c>
       <c r="B29" s="17"/>
@@ -18058,8 +20920,8 @@
       <c r="AV29" s="18"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="120"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -18109,8 +20971,8 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -18160,9 +21022,14 @@
       <c r="AV31" s="23"/>
       <c r="AW31" s="24"/>
     </row>
-    <row r="32" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -18172,11 +21039,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18192,77 +21054,77 @@
       <selection pane="bottomLeft" activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.53515625" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.3046875" style="1"/>
+    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5703125" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" s="9" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="111" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="111" t="s">
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="113"/>
-    </row>
-    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110">
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="123"/>
+    </row>
+    <row r="2" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120">
         <v>18</v>
       </c>
       <c r="B2" s="17">
@@ -18410,8 +21272,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
       <c r="B3" s="20">
         <v>13</v>
       </c>
@@ -18557,8 +21419,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="22">
         <v>25</v>
       </c>
@@ -18704,8 +21566,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="110">
+    <row r="5" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120">
         <v>18</v>
       </c>
       <c r="B5" s="28">
@@ -18853,8 +21715,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
       <c r="B6" s="20">
         <v>13</v>
       </c>
@@ -19000,8 +21862,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="22">
         <v>25</v>
       </c>
@@ -19147,8 +22009,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="110">
+    <row r="8" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120">
         <v>18</v>
       </c>
       <c r="B8" s="17">
@@ -19296,8 +22158,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
       <c r="B9" s="20">
         <v>13</v>
       </c>
@@ -19443,8 +22305,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="31">
         <v>25</v>
       </c>
@@ -19590,8 +22452,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110">
+    <row r="11" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120">
         <v>18</v>
       </c>
       <c r="B11" s="17">
@@ -19739,8 +22601,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
       <c r="B12" s="20">
         <v>13</v>
       </c>
@@ -19886,8 +22748,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="22">
         <v>25</v>
       </c>
@@ -20033,8 +22895,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>18</v>
       </c>
       <c r="B14" s="17">
@@ -20182,8 +23044,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20">
         <v>13</v>
       </c>
@@ -20329,8 +23191,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22">
         <v>25</v>
       </c>
@@ -20476,8 +23338,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="110">
+    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120">
         <v>18</v>
       </c>
       <c r="B17" s="17">
@@ -20625,8 +23487,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
+    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
       <c r="B18" s="20">
         <v>13</v>
       </c>
@@ -20772,8 +23634,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110"/>
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="22">
         <v>25</v>
       </c>
@@ -20919,8 +23781,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>18</v>
       </c>
       <c r="B20" s="61">
@@ -21068,8 +23930,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -21215,8 +24077,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22">
         <v>25</v>
       </c>
@@ -21362,8 +24224,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110">
+    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
         <v>18</v>
       </c>
       <c r="B23" s="17">
@@ -21511,8 +24373,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120"/>
       <c r="B24" s="20">
         <v>13</v>
       </c>
@@ -21658,8 +24520,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
       <c r="B25" s="22">
         <v>25</v>
       </c>
@@ -21805,8 +24667,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="110">
+    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120">
         <v>18</v>
       </c>
       <c r="B26" s="17">
@@ -21954,8 +24816,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -22101,8 +24963,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110"/>
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
       <c r="B28" s="22">
         <v>25</v>
       </c>
@@ -22248,8 +25110,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="110">
+    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
         <v>18</v>
       </c>
       <c r="B29" s="17">
@@ -22397,8 +25259,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="120"/>
       <c r="B30" s="20">
         <v>13</v>
       </c>
@@ -22544,8 +25406,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -22691,9 +25553,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A8:A10"/>
@@ -22702,12 +25570,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22721,14 +25583,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" style="11" customWidth="1"/>
-    <col min="2" max="48" width="5.69140625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
+    <col min="2" max="48" width="5.7109375" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -22778,7 +25640,7 @@
       <c r="AU1" s="6"/>
       <c r="AV1" s="8"/>
     </row>
-    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -22828,7 +25690,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -22878,7 +25740,7 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
     </row>
-    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -22928,7 +25790,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="8"/>
     </row>
-    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -22978,7 +25840,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -23028,7 +25890,7 @@
       <c r="AU6" s="13"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -23078,7 +25940,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="8"/>
     </row>
-    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23128,7 +25990,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -23178,7 +26040,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -23228,7 +26090,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -23278,7 +26140,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -23328,7 +26190,7 @@
       <c r="AU12" s="13"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -23378,7 +26240,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="8"/>
     </row>
-    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -23428,7 +26290,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -23478,7 +26340,7 @@
       <c r="AU15" s="13"/>
       <c r="AV15" s="15"/>
     </row>
-    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -23528,7 +26390,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="8"/>
     </row>
-    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -23578,7 +26440,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -23628,7 +26490,7 @@
       <c r="AU18" s="13"/>
       <c r="AV18" s="15"/>
     </row>
-    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -23678,7 +26540,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
     </row>
-    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -23728,7 +26590,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -23778,7 +26640,7 @@
       <c r="AU21" s="13"/>
       <c r="AV21" s="15"/>
     </row>
-    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -23828,7 +26690,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -23878,7 +26740,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -23928,7 +26790,7 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="15"/>
     </row>
-    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -23978,7 +26840,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
     </row>
-    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24028,7 +26890,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -24078,7 +26940,7 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -24128,7 +26990,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
     </row>
-    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -24178,7 +27040,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -24242,77 +27104,77 @@
       <selection activeCell="B5" sqref="A5:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="15.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="5.69140625" style="11" customWidth="1"/>
-    <col min="3" max="49" width="5.69140625" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="11" customWidth="1"/>
+    <col min="3" max="49" width="5.7109375" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" s="35" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="107" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="107" t="s">
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="109"/>
-    </row>
-    <row r="2" spans="1:49" s="9" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114">
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" s="9" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124">
         <v>15</v>
       </c>
       <c r="B2" s="17"/>
@@ -24364,8 +27226,8 @@
       <c r="AV2" s="18"/>
       <c r="AW2" s="19"/>
     </row>
-    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="115"/>
+    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -24415,8 +27277,8 @@
       <c r="AV3" s="16"/>
       <c r="AW3" s="21"/>
     </row>
-    <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="115"/>
+    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="125"/>
       <c r="B4" s="22"/>
       <c r="C4" s="31"/>
       <c r="D4" s="23"/>
@@ -24466,8 +27328,8 @@
       <c r="AV4" s="23"/>
       <c r="AW4" s="24"/>
     </row>
-    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="115">
+    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="125">
         <v>17</v>
       </c>
       <c r="B5" s="17"/>
@@ -24519,8 +27381,8 @@
       <c r="AV5" s="18"/>
       <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
       <c r="B6" s="20"/>
       <c r="C6" s="33"/>
       <c r="D6" s="16"/>
@@ -24570,8 +27432,8 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="115"/>
+    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="125"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -24621,8 +27483,8 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="115">
+    <row r="8" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="125">
         <v>17</v>
       </c>
       <c r="B8" s="17"/>
@@ -24674,8 +27536,8 @@
       <c r="AV8" s="18"/>
       <c r="AW8" s="19"/>
     </row>
-    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="115"/>
+    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="125"/>
       <c r="B9" s="20"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -24725,8 +27587,8 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="21"/>
     </row>
-    <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="115"/>
+    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="125"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="31"/>
@@ -24776,8 +27638,8 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="115">
+    <row r="11" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125">
         <v>18</v>
       </c>
       <c r="B11" s="17"/>
@@ -24829,8 +27691,8 @@
       <c r="AV11" s="18"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="115"/>
+    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="125"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -24880,8 +27742,8 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="115"/>
+    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="125"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
       <c r="D13" s="23"/>
@@ -24931,8 +27793,8 @@
       <c r="AV13" s="23"/>
       <c r="AW13" s="24"/>
     </row>
-    <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="110">
+    <row r="14" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120">
         <v>14</v>
       </c>
       <c r="B14" s="28"/>
@@ -24984,8 +27846,8 @@
       <c r="AV14" s="18"/>
       <c r="AW14" s="19"/>
     </row>
-    <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
+    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -25035,8 +27897,8 @@
       <c r="AV15" s="16"/>
       <c r="AW15" s="21"/>
     </row>
-    <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110"/>
+    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="22"/>
       <c r="C16" s="31"/>
       <c r="D16" s="23"/>
@@ -25086,8 +27948,8 @@
       <c r="AV16" s="23"/>
       <c r="AW16" s="24"/>
     </row>
-    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="110">
+    <row r="17" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120">
         <v>14</v>
       </c>
       <c r="B17" s="17"/>
@@ -25139,8 +28001,8 @@
       <c r="AV17" s="18"/>
       <c r="AW17" s="19"/>
     </row>
-    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
+    <row r="18" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -25190,8 +28052,8 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="110"/>
+    <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="22"/>
       <c r="C19" s="31"/>
       <c r="D19" s="23"/>
@@ -25241,8 +28103,8 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="110">
+    <row r="20" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
         <v>14</v>
       </c>
       <c r="B20" s="17"/>
@@ -25294,8 +28156,8 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
       <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -25345,8 +28207,8 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="22"/>
       <c r="C22" s="31"/>
       <c r="D22" s="23"/>
@@ -25396,8 +28258,8 @@
       <c r="AV22" s="23"/>
       <c r="AW22" s="24"/>
     </row>
-    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110">
+    <row r="23" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
         <v>14</v>
       </c>
       <c r="B23" s="17"/>
@@ -25449,8 +28311,8 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
+    <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120"/>
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="33"/>
@@ -25500,8 +28362,8 @@
       <c r="AV24" s="16"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -25551,8 +28413,8 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="110">
+    <row r="26" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120">
         <v>13</v>
       </c>
       <c r="B26" s="17"/>
@@ -25604,8 +28466,8 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="20"/>
       <c r="C27" s="33"/>
       <c r="D27" s="16"/>
@@ -25655,8 +28517,8 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="110"/>
+    <row r="28" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -25706,8 +28568,8 @@
       <c r="AV28" s="23"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="110">
+    <row r="29" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
         <v>15</v>
       </c>
       <c r="B29" s="17"/>
@@ -25759,8 +28621,8 @@
       <c r="AV29" s="18"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
+    <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="120"/>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -25810,8 +28672,8 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -25861,9 +28723,14 @@
       <c r="AV31" s="23"/>
       <c r="AW31" s="24"/>
     </row>
-    <row r="32" spans="1:49" ht="16.3" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="N1:Y1"/>
@@ -25873,11 +28740,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25892,75 +28754,75 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69140625" customWidth="1"/>
-    <col min="2" max="49" width="5.69140625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="49" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="32.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="107" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="107" t="s">
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="109"/>
-    </row>
-    <row r="2" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126"/>
       <c r="B2" s="73"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -26010,8 +28872,8 @@
       <c r="AV2" s="59"/>
       <c r="AW2" s="62"/>
     </row>
-    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="116"/>
+    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
       <c r="B3" s="78"/>
       <c r="C3" s="58"/>
       <c r="D3" s="16"/>
@@ -26061,8 +28923,8 @@
       <c r="AV3" s="58"/>
       <c r="AW3" s="64"/>
     </row>
-    <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="116"/>
+    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
       <c r="B4" s="27"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -26112,8 +28974,8 @@
       <c r="AV4" s="66"/>
       <c r="AW4" s="72"/>
     </row>
-    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="116"/>
+    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="127"/>
       <c r="B5" s="75"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -26163,8 +29025,8 @@
       <c r="AV5" s="32"/>
       <c r="AW5" s="19"/>
     </row>
-    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="116"/>
+    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="127"/>
       <c r="B6" s="26"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -26214,8 +29076,8 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="21"/>
     </row>
-    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
       <c r="B7" s="27"/>
       <c r="C7" s="31"/>
       <c r="D7" s="23"/>
@@ -26265,8 +29127,8 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="24"/>
     </row>
-    <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="116"/>
+    <row r="8" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
       <c r="B8" s="25"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -26316,8 +29178,8 @@
       <c r="AV8" s="59"/>
       <c r="AW8" s="62"/>
     </row>
-    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127"/>
       <c r="B9" s="74"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -26367,8 +29229,8 @@
       <c r="AV9" s="16"/>
       <c r="AW9" s="60"/>
     </row>
-    <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
       <c r="B10" s="76"/>
       <c r="C10" s="66"/>
       <c r="D10" s="23"/>
@@ -26418,8 +29280,8 @@
       <c r="AV10" s="23"/>
       <c r="AW10" s="24"/>
     </row>
-    <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
       <c r="B11" s="25"/>
       <c r="C11" s="59"/>
       <c r="D11" s="18"/>
@@ -26467,8 +29329,8 @@
       <c r="AU11" s="18"/>
       <c r="AW11" s="19"/>
     </row>
-    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="116"/>
+    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33"/>
       <c r="D12" s="16"/>
@@ -26518,8 +29380,8 @@
       <c r="AV12" s="33"/>
       <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
       <c r="B13" s="27"/>
       <c r="C13" s="66"/>
       <c r="D13" s="23"/>
@@ -26568,8 +29430,8 @@
       <c r="AV13" s="66"/>
       <c r="AW13" s="24"/>
     </row>
-    <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="116"/>
+    <row r="14" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
       <c r="B14" s="25"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -26619,8 +29481,8 @@
       <c r="AV14" s="59"/>
       <c r="AW14" s="62"/>
     </row>
-    <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="116"/>
+    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
       <c r="B15" s="26"/>
       <c r="C15" s="33"/>
       <c r="E15" s="16"/>
@@ -26666,8 +29528,8 @@
       <c r="AV15" s="33"/>
       <c r="AW15" s="64"/>
     </row>
-    <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="116"/>
+    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="127"/>
       <c r="B16" s="27"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -26717,8 +29579,8 @@
       <c r="AV16" s="66"/>
       <c r="AW16" s="67"/>
     </row>
-    <row r="17" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="116"/>
+    <row r="17" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
       <c r="B17" s="25"/>
       <c r="C17" s="18"/>
       <c r="D17" s="59"/>
@@ -26768,8 +29630,8 @@
       <c r="AV17" s="59"/>
       <c r="AW17" s="70"/>
     </row>
-    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="116"/>
+    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
       <c r="B18" s="26"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -26819,8 +29681,8 @@
       <c r="AV18" s="16"/>
       <c r="AW18" s="21"/>
     </row>
-    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="127"/>
       <c r="B19" s="77"/>
       <c r="C19" s="66"/>
       <c r="D19" s="23"/>
@@ -26870,8 +29732,8 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="24"/>
     </row>
-    <row r="20" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="116"/>
+    <row r="20" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
       <c r="B20" s="73"/>
       <c r="C20" s="59"/>
       <c r="D20" s="18"/>
@@ -26919,8 +29781,8 @@
       <c r="AV20" s="18"/>
       <c r="AW20" s="19"/>
     </row>
-    <row r="21" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
       <c r="B21" s="26"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -26970,8 +29832,8 @@
       <c r="AV21" s="16"/>
       <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="116"/>
+    <row r="22" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="127"/>
       <c r="B22" s="27"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -27019,8 +29881,8 @@
       <c r="AV22" s="66"/>
       <c r="AW22" s="72"/>
     </row>
-    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="116"/>
+    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
       <c r="B23" s="25"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -27070,8 +29932,8 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="19"/>
     </row>
-    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="116"/>
+    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33"/>
       <c r="D24" s="16"/>
@@ -27121,8 +29983,8 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="21"/>
     </row>
-    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="116"/>
+    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="127"/>
       <c r="B25" s="27"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -27172,8 +30034,8 @@
       <c r="AV25" s="23"/>
       <c r="AW25" s="24"/>
     </row>
-    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="116"/>
+    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="127"/>
       <c r="B26" s="25"/>
       <c r="C26" s="32"/>
       <c r="D26" s="18"/>
@@ -27223,8 +30085,8 @@
       <c r="AV26" s="18"/>
       <c r="AW26" s="19"/>
     </row>
-    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="116"/>
+    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
       <c r="B27" s="26"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -27270,8 +30132,8 @@
       <c r="AV27" s="16"/>
       <c r="AW27" s="21"/>
     </row>
-    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="116"/>
+    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="127"/>
       <c r="B28" s="27"/>
       <c r="C28" s="23"/>
       <c r="D28" s="31"/>
@@ -27321,8 +30183,8 @@
       <c r="AV28" s="31"/>
       <c r="AW28" s="24"/>
     </row>
-    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="116"/>
+    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="127"/>
       <c r="B29" s="25"/>
       <c r="C29" s="18"/>
       <c r="D29" s="32"/>
@@ -27369,8 +30231,8 @@
       <c r="AV29" s="32"/>
       <c r="AW29" s="19"/>
     </row>
-    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="116"/>
+    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
       <c r="B30" s="26"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -27419,8 +30281,8 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="21"/>
     </row>
-    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="117"/>
+    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="128"/>
       <c r="B31" s="27"/>
       <c r="C31" s="31"/>
       <c r="D31" s="23"/>
@@ -27472,11 +30334,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -27486,6 +30343,11 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27498,78 +30360,78 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69140625" customWidth="1"/>
-    <col min="2" max="49" width="5.69140625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="49" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="32.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:49" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="107" t="s">
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="107" t="s">
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="109"/>
-    </row>
-    <row r="2" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="118">
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126">
         <v>15</v>
       </c>
       <c r="B2" s="73">
@@ -27717,8 +30579,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="116"/>
+    <row r="3" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
       <c r="B3" s="78">
         <v>13</v>
       </c>
@@ -27864,8 +30726,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="116"/>
+    <row r="4" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
       <c r="B4" s="27">
         <v>25</v>
       </c>
@@ -28011,8 +30873,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="116">
+    <row r="5" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="127">
         <v>15</v>
       </c>
       <c r="B5" s="75">
@@ -28160,8 +31022,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="116"/>
+    <row r="6" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="127"/>
       <c r="B6" s="26">
         <v>13</v>
       </c>
@@ -28307,8 +31169,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
       <c r="B7" s="27">
         <v>25</v>
       </c>
@@ -28454,8 +31316,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="116">
+    <row r="8" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127">
         <v>15</v>
       </c>
       <c r="B8" s="25">
@@ -28603,8 +31465,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127"/>
       <c r="B9" s="74">
         <v>13</v>
       </c>
@@ -28750,8 +31612,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
       <c r="B10" s="76">
         <v>25</v>
       </c>
@@ -28897,8 +31759,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="116">
+    <row r="11" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="127">
         <v>15</v>
       </c>
       <c r="B11" s="25">
@@ -29046,8 +31908,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="116"/>
+    <row r="12" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
       <c r="B12" s="26">
         <v>13</v>
       </c>
@@ -29193,8 +32055,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
       <c r="B13" s="27">
         <v>25</v>
       </c>
@@ -29340,8 +32202,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="116">
+    <row r="14" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127">
         <v>15</v>
       </c>
       <c r="B14" s="25">
@@ -29489,8 +32351,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="116"/>
+    <row r="15" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
       <c r="B15" s="26">
         <v>13</v>
       </c>
@@ -29636,8 +32498,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="116"/>
+    <row r="16" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="127"/>
       <c r="B16" s="27">
         <v>25</v>
       </c>
@@ -29783,8 +32645,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="116">
+    <row r="17" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127">
         <v>15</v>
       </c>
       <c r="B17" s="25">
@@ -29932,8 +32794,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="116"/>
+    <row r="18" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
       <c r="B18" s="26">
         <v>13</v>
       </c>
@@ -30079,8 +32941,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="127"/>
       <c r="B19" s="77">
         <v>25</v>
       </c>
@@ -30226,8 +33088,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="116">
+    <row r="20" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="127">
         <v>15</v>
       </c>
       <c r="B20" s="73">
@@ -30375,8 +33237,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
       <c r="B21" s="26">
         <v>13</v>
       </c>
@@ -30522,8 +33384,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="116"/>
+    <row r="22" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="127"/>
       <c r="B22" s="27">
         <v>25</v>
       </c>
@@ -30669,8 +33531,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="116">
+    <row r="23" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127">
         <v>15</v>
       </c>
       <c r="B23" s="25">
@@ -30818,8 +33680,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="116"/>
+    <row r="24" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
       <c r="B24" s="26">
         <v>13</v>
       </c>
@@ -30965,8 +33827,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="116"/>
+    <row r="25" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="127"/>
       <c r="B25" s="27">
         <v>25</v>
       </c>
@@ -31112,8 +33974,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="116">
+    <row r="26" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="127">
         <v>15</v>
       </c>
       <c r="B26" s="25">
@@ -31261,8 +34123,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="116"/>
+    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
       <c r="B27" s="26">
         <v>13</v>
       </c>
@@ -31408,8 +34270,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="116"/>
+    <row r="28" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="127"/>
       <c r="B28" s="27">
         <v>25</v>
       </c>
@@ -31555,8 +34417,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="116">
+    <row r="29" spans="1:49" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="127">
         <v>15</v>
       </c>
       <c r="B29" s="25">
@@ -31704,8 +34566,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="116"/>
+    <row r="30" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
       <c r="B30" s="26">
         <v>13</v>
       </c>
@@ -31851,8 +34713,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="117"/>
+    <row r="31" spans="1:49" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="128"/>
       <c r="B31" s="27">
         <v>25</v>
       </c>
@@ -32000,12 +34862,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A8:A10"/>
@@ -32014,6 +34870,12 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
